--- a/shared/ojb-resources-common/src/main/resources/ssp/Booking_Reporting/artifacts/service_model/information_model/IEPD/documentation/BookingReportMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Booking_Reporting/artifacts/service_model/information_model/IEPD/documentation/BookingReportMapping.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15045" tabRatio="500"/>
+    <workbookView xWindow="4180" yWindow="1340" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Booking Report" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="186">
   <si>
     <t>Race</t>
   </si>
@@ -310,9 +310,6 @@
     <t>the status of a bond (SRP, C/S-PR, PR-SRP, C/S-SRP, SUR, NO-BOND, SPLIT) SRP=Supervised Release Pretrial; C=Cash; S or SUR=Surety; PR=Pretrial Release</t>
   </si>
   <si>
-    <t>PreTrial Status (Case Status)</t>
-  </si>
-  <si>
     <t>Portal</t>
   </si>
   <si>
@@ -608,6 +605,36 @@
   </si>
   <si>
     <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonCriminalHistorySummary/j:RegisteredSexualOffenderIndicator</t>
+  </si>
+  <si>
+    <t>Person Primary Language</t>
+  </si>
+  <si>
+    <t>Arrest Location LAT</t>
+  </si>
+  <si>
+    <t>Arrest Location Long</t>
+  </si>
+  <si>
+    <t>PreTrial Status Code</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Case Court Name</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonPrimaryLanguage/nc:LanguageName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Case[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:CaseAugmentation/j:CaseCourt/j:CourtName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Location[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Location[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeDegreeValue</t>
   </si>
 </sst>
 </file>
@@ -731,9 +758,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="722">
+  <cellStyleXfs count="734">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1585,7 +1624,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="722">
+  <cellStyles count="734">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1946,6 +1985,12 @@
     <cellStyle name="Followed Hyperlink" xfId="717" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="719" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="721" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="723" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="725" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="727" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="729" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="731" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="733" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2306,6 +2351,12 @@
     <cellStyle name="Hyperlink" xfId="716" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="718" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="720" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="722" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="724" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="726" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="728" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="730" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="732" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2641,29 +2692,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L380"/>
+  <dimension ref="A1:L385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="21" style="4" customWidth="1"/>
-    <col min="3" max="4" width="28.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="92.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="4" customWidth="1"/>
-    <col min="10" max="11" width="10.875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="31.625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="4"/>
+    <col min="3" max="4" width="28.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="92.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="4" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="43" t="s">
         <v>50</v>
       </c>
@@ -2675,7 +2726,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="47.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2686,7 +2737,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
@@ -2701,19 +2752,19 @@
         <v>13</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
@@ -2729,7 +2780,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="31.5">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>7</v>
@@ -2739,7 +2790,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>10</v>
@@ -2751,7 +2802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="8"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
@@ -2761,7 +2812,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>10</v>
@@ -2773,7 +2824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>52</v>
       </c>
@@ -2789,7 +2840,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>29</v>
@@ -2799,7 +2850,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -2811,7 +2862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>30</v>
@@ -2821,7 +2872,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -2833,9 +2884,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>180</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2849,80 +2900,61 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="45">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>33</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="24" t="s">
-        <v>21</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" ht="31.5">
+      <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" s="8"/>
+        <v>128</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="25" t="s">
+      <c r="H12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="J12" s="24" t="s">
@@ -2930,84 +2962,72 @@
       </c>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="31.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="19" t="s">
-        <v>132</v>
+      <c r="E13" s="18" t="s">
+        <v>129</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="25" t="s">
+      <c r="H13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="24" t="s">
         <v>21</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="1:12" ht="31.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="19" t="s">
-        <v>133</v>
+      <c r="E14" s="18" t="s">
+        <v>130</v>
       </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="8"/>
+      <c r="G14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" ht="47.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>21</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="18" t="s">
         <v>21</v>
       </c>
@@ -3017,54 +3037,54 @@
       <c r="J15" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="L15" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="47.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>21</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>21</v>
-      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="25" t="s">
         <v>21</v>
       </c>
       <c r="J16" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="24"/>
+      <c r="K16" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="L16" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="47.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>21</v>
@@ -3083,103 +3103,117 @@
       </c>
       <c r="K17" s="24"/>
       <c r="L17" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="47.25">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="47.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="31.5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:12" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:12" ht="31.5">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="28"/>
+        <v>121</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="29"/>
       <c r="E21" s="30" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="31" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="J21" s="32" t="s">
         <v>21</v>
@@ -3187,23 +3221,25 @@
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:12" ht="47.25">
+      <c r="A22" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="B22" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J22" s="32" t="s">
         <v>21</v>
@@ -3211,23 +3247,23 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="47.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>116</v>
+      <c r="B23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>113</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="30" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J23" s="32" t="s">
         <v>21</v>
@@ -3235,23 +3271,23 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="47.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J24" s="32" t="s">
         <v>21</v>
@@ -3259,252 +3295,255 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:12" ht="45">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" ht="47.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+    </row>
+    <row r="27" spans="1:12" ht="45">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="10" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="31.5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E29" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="31.5">
+      <c r="A30" s="13"/>
+      <c r="B30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="F26" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="12" t="s">
+      <c r="F30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="78.75">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="35"/>
+      <c r="E31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" s="14" customFormat="1" ht="31.5">
+      <c r="B33" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="12" t="s">
+      <c r="F33" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="31.5">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="13" t="s">
+      <c r="C34" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="47.25">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F30" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3518,39 +3557,40 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="47.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="B37" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="13"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
-      <c r="I37" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I37" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="25" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="31.5" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>145</v>
+        <v>46</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>21</v>
@@ -3561,71 +3601,61 @@
         <v>21</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="173.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="33"/>
-      <c r="L40" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="18" t="s">
-        <v>148</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" ht="31.5">
+      <c r="A40" s="13"/>
+      <c r="B40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="31.5">
+      <c r="A41" s="13"/>
+      <c r="B41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -3636,35 +3666,42 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="26"/>
-    </row>
-    <row r="43" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="47.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="173.25">
       <c r="A43" s="34"/>
-      <c r="B43" s="39" t="s">
-        <v>163</v>
+      <c r="B43" s="35" t="s">
+        <v>88</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="D43" s="32"/>
-      <c r="E43" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" s="33"/>
+      <c r="E43" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="11"/>
       <c r="G43" s="36"/>
       <c r="H43" s="36"/>
       <c r="I43" s="32" t="s">
@@ -3674,31 +3711,36 @@
         <v>21</v>
       </c>
       <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-    </row>
-    <row r="44" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="31.5">
+      <c r="A44" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="6" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3712,393 +3754,436 @@
       <c r="K45" s="7"/>
       <c r="L45" s="26"/>
     </row>
-    <row r="46" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="10" t="s">
+    <row r="46" spans="1:12" ht="63">
+      <c r="A46" s="34"/>
+      <c r="B46" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F46" s="33"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+    </row>
+    <row r="47" spans="1:12" ht="45">
+      <c r="A47" s="34"/>
+      <c r="B47" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47" s="33"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+    </row>
+    <row r="48" spans="1:12" ht="45">
+      <c r="A48" s="34"/>
+      <c r="B48" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+    </row>
+    <row r="49" spans="1:12" ht="63">
+      <c r="A49" s="36"/>
+      <c r="B49" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="1:12" ht="47.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="31.5">
+      <c r="A52" s="13"/>
+      <c r="B52" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="L47" s="24" t="s">
+      <c r="F52" s="13"/>
+      <c r="G52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="47.25">
+      <c r="A53" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+    <row r="54" spans="1:12" ht="47.25">
+      <c r="A54" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="17" t="s">
+      <c r="B54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L48" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="L50" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
-      <c r="B51" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
-      <c r="B52" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
-      <c r="B53" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="F54" s="13"/>
+      <c r="F54" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="G54" s="13"/>
       <c r="H54" s="13"/>
-      <c r="I54" s="25"/>
+      <c r="I54" s="25" t="s">
+        <v>21</v>
+      </c>
       <c r="J54" s="24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="20" t="s">
+    <row r="55" spans="1:12" ht="47.25">
+      <c r="B55" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="47.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="13"/>
+      <c r="G56" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="47.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F57" s="13"/>
+      <c r="G57" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="47.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="47.25">
+      <c r="A59" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="32"/>
-      <c r="E56" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" s="33"/>
-      <c r="L56" s="41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C57" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D57" s="32"/>
-      <c r="E57" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="17"/>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="E60" s="13"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="30">
+      <c r="A60" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="17" t="s">
+        <v>172</v>
+      </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-    </row>
-    <row r="62" spans="1:12" ht="63" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="E64" s="13"/>
+      <c r="I60" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="31.5">
+      <c r="A61" s="34"/>
+      <c r="B61" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="32"/>
+      <c r="E61" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="33"/>
+      <c r="L61" s="41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="31.5">
+      <c r="A62" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="32"/>
+      <c r="E62" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="32"/>
+      <c r="E63" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="20"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="13"/>
       <c r="G64" s="13"/>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="E65" s="13"/>
@@ -4107,8 +4192,10 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+    <row r="66" spans="1:9">
+      <c r="A66" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="B66" s="13"/>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
@@ -4116,16 +4203,22 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
+    <row r="67" spans="1:9" ht="63">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="1"/>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="E68" s="13"/>
@@ -4134,7 +4227,7 @@
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="E69" s="13"/>
@@ -4143,7 +4236,7 @@
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="E70" s="13"/>
@@ -4152,7 +4245,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="E71" s="13"/>
@@ -4161,7 +4254,7 @@
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="E72" s="13"/>
@@ -4170,7 +4263,7 @@
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="E73" s="13"/>
@@ -4179,7 +4272,7 @@
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="E74" s="13"/>
@@ -4188,7 +4281,7 @@
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="E75" s="13"/>
@@ -4197,7 +4290,7 @@
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="E76" s="13"/>
@@ -4206,7 +4299,7 @@
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="E77" s="13"/>
@@ -4215,7 +4308,7 @@
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="E78" s="13"/>
@@ -4224,7 +4317,7 @@
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="E79" s="13"/>
@@ -4233,7 +4326,7 @@
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="E80" s="13"/>
@@ -4242,7 +4335,7 @@
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="E81" s="13"/>
@@ -4251,7 +4344,7 @@
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="E82" s="13"/>
@@ -4260,7 +4353,7 @@
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="E83" s="13"/>
@@ -4269,7 +4362,7 @@
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="E84" s="13"/>
@@ -4278,7 +4371,7 @@
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="E85" s="13"/>
@@ -4287,7 +4380,7 @@
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="E86" s="13"/>
@@ -4296,7 +4389,7 @@
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="E87" s="13"/>
@@ -4305,7 +4398,7 @@
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="E88" s="13"/>
@@ -4314,7 +4407,7 @@
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="E89" s="13"/>
@@ -4323,7 +4416,7 @@
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="E90" s="13"/>
@@ -4332,7 +4425,7 @@
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="E91" s="13"/>
@@ -4341,7 +4434,7 @@
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="E92" s="13"/>
@@ -4350,7 +4443,7 @@
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="E93" s="13"/>
@@ -4359,7 +4452,7 @@
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="E94" s="13"/>
@@ -4368,7 +4461,7 @@
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="E95" s="13"/>
@@ -4377,7 +4470,7 @@
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="E96" s="13"/>
@@ -4386,7 +4479,7 @@
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="E97" s="13"/>
@@ -4395,7 +4488,7 @@
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="E98" s="13"/>
@@ -4404,7 +4497,7 @@
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="E99" s="13"/>
@@ -4413,7 +4506,7 @@
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="E100" s="13"/>
@@ -4422,7 +4515,7 @@
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="E101" s="13"/>
@@ -4431,7 +4524,7 @@
       <c r="H101" s="13"/>
       <c r="I101" s="13"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="E102" s="13"/>
@@ -4440,7 +4533,7 @@
       <c r="H102" s="13"/>
       <c r="I102" s="13"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="E103" s="13"/>
@@ -4449,7 +4542,7 @@
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="E104" s="13"/>
@@ -4458,7 +4551,7 @@
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="E105" s="13"/>
@@ -4467,7 +4560,7 @@
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="E106" s="13"/>
@@ -4476,7 +4569,7 @@
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="E107" s="13"/>
@@ -4485,7 +4578,7 @@
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="E108" s="13"/>
@@ -4494,7 +4587,7 @@
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="E109" s="13"/>
@@ -4503,7 +4596,7 @@
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="E110" s="13"/>
@@ -4512,7 +4605,7 @@
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="E111" s="13"/>
@@ -4521,7 +4614,7 @@
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="E112" s="13"/>
@@ -4530,7 +4623,7 @@
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="E113" s="13"/>
@@ -4539,7 +4632,7 @@
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="E114" s="13"/>
@@ -4548,7 +4641,7 @@
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
       <c r="E115" s="13"/>
@@ -4557,7 +4650,7 @@
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
       <c r="E116" s="13"/>
@@ -4566,7 +4659,7 @@
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="13"/>
       <c r="B117" s="13"/>
       <c r="E117" s="13"/>
@@ -4575,7 +4668,7 @@
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="13"/>
       <c r="B118" s="13"/>
       <c r="E118" s="13"/>
@@ -4584,7 +4677,7 @@
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="13"/>
       <c r="B119" s="13"/>
       <c r="E119" s="13"/>
@@ -4593,7 +4686,7 @@
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="13"/>
       <c r="B120" s="13"/>
       <c r="E120" s="13"/>
@@ -4602,7 +4695,7 @@
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="13"/>
       <c r="B121" s="13"/>
       <c r="E121" s="13"/>
@@ -4611,7 +4704,7 @@
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="E122" s="13"/>
@@ -4620,7 +4713,7 @@
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="13"/>
       <c r="B123" s="13"/>
       <c r="E123" s="13"/>
@@ -4629,7 +4722,7 @@
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="13"/>
       <c r="B124" s="13"/>
       <c r="E124" s="13"/>
@@ -4638,7 +4731,7 @@
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="13"/>
       <c r="B125" s="13"/>
       <c r="E125" s="13"/>
@@ -4647,7 +4740,7 @@
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="13"/>
       <c r="B126" s="13"/>
       <c r="E126" s="13"/>
@@ -4656,7 +4749,7 @@
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="13"/>
       <c r="B127" s="13"/>
       <c r="E127" s="13"/>
@@ -4665,7 +4758,7 @@
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="13"/>
       <c r="B128" s="13"/>
       <c r="E128" s="13"/>
@@ -4674,7 +4767,7 @@
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="13"/>
       <c r="B129" s="13"/>
       <c r="E129" s="13"/>
@@ -4683,7 +4776,7 @@
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="E130" s="13"/>
@@ -4692,7 +4785,7 @@
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="E131" s="13"/>
@@ -4701,7 +4794,7 @@
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="E132" s="13"/>
@@ -4710,7 +4803,7 @@
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="E133" s="13"/>
@@ -4719,7 +4812,7 @@
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="E134" s="13"/>
@@ -4728,7 +4821,7 @@
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="E135" s="13"/>
@@ -4737,7 +4830,7 @@
       <c r="H135" s="13"/>
       <c r="I135" s="13"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="E136" s="13"/>
@@ -4746,7 +4839,7 @@
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="E137" s="13"/>
@@ -4755,7 +4848,7 @@
       <c r="H137" s="13"/>
       <c r="I137" s="13"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="E138" s="13"/>
@@ -4764,7 +4857,7 @@
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="E139" s="13"/>
@@ -4773,7 +4866,7 @@
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="E140" s="13"/>
@@ -4782,7 +4875,7 @@
       <c r="H140" s="13"/>
       <c r="I140" s="13"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="E141" s="13"/>
@@ -4791,7 +4884,7 @@
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="E142" s="13"/>
@@ -4800,7 +4893,7 @@
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="E143" s="13"/>
@@ -4809,7 +4902,7 @@
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="E144" s="13"/>
@@ -4818,7 +4911,7 @@
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="13"/>
       <c r="B145" s="13"/>
       <c r="E145" s="13"/>
@@ -4827,7 +4920,7 @@
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="13"/>
       <c r="B146" s="13"/>
       <c r="E146" s="13"/>
@@ -4836,7 +4929,7 @@
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="13"/>
       <c r="B147" s="13"/>
       <c r="E147" s="13"/>
@@ -4845,7 +4938,7 @@
       <c r="H147" s="13"/>
       <c r="I147" s="13"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="13"/>
       <c r="B148" s="13"/>
       <c r="E148" s="13"/>
@@ -4854,7 +4947,7 @@
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="13"/>
       <c r="B149" s="13"/>
       <c r="E149" s="13"/>
@@ -4863,7 +4956,7 @@
       <c r="H149" s="13"/>
       <c r="I149" s="13"/>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="13"/>
       <c r="B150" s="13"/>
       <c r="E150" s="13"/>
@@ -4872,7 +4965,7 @@
       <c r="H150" s="13"/>
       <c r="I150" s="13"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="13"/>
       <c r="B151" s="13"/>
       <c r="E151" s="13"/>
@@ -4881,7 +4974,7 @@
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="13"/>
       <c r="B152" s="13"/>
       <c r="E152" s="13"/>
@@ -4890,7 +4983,7 @@
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="E153" s="13"/>
@@ -4899,7 +4992,7 @@
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="13"/>
       <c r="B154" s="13"/>
       <c r="E154" s="13"/>
@@ -4908,7 +5001,7 @@
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="13"/>
       <c r="B155" s="13"/>
       <c r="E155" s="13"/>
@@ -4917,7 +5010,7 @@
       <c r="H155" s="13"/>
       <c r="I155" s="13"/>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="13"/>
       <c r="B156" s="13"/>
       <c r="E156" s="13"/>
@@ -4926,7 +5019,7 @@
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="13"/>
       <c r="B157" s="13"/>
       <c r="E157" s="13"/>
@@ -4935,7 +5028,7 @@
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="13"/>
       <c r="B158" s="13"/>
       <c r="E158" s="13"/>
@@ -4944,7 +5037,7 @@
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="13"/>
       <c r="B159" s="13"/>
       <c r="E159" s="13"/>
@@ -4953,7 +5046,7 @@
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="13"/>
       <c r="B160" s="13"/>
       <c r="E160" s="13"/>
@@ -4962,7 +5055,7 @@
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="13"/>
       <c r="B161" s="13"/>
       <c r="E161" s="13"/>
@@ -4971,7 +5064,7 @@
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="13"/>
       <c r="B162" s="13"/>
       <c r="E162" s="13"/>
@@ -4980,7 +5073,7 @@
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="13"/>
       <c r="B163" s="13"/>
       <c r="E163" s="13"/>
@@ -4989,7 +5082,7 @@
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="13"/>
       <c r="B164" s="13"/>
       <c r="E164" s="13"/>
@@ -4998,7 +5091,7 @@
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="13"/>
       <c r="B165" s="13"/>
       <c r="E165" s="13"/>
@@ -5007,7 +5100,7 @@
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="13"/>
       <c r="B166" s="13"/>
       <c r="E166" s="13"/>
@@ -5016,7 +5109,7 @@
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="13"/>
       <c r="B167" s="13"/>
       <c r="E167" s="13"/>
@@ -5025,7 +5118,7 @@
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="13"/>
       <c r="B168" s="13"/>
       <c r="E168" s="13"/>
@@ -5034,7 +5127,7 @@
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="13"/>
       <c r="B169" s="13"/>
       <c r="E169" s="13"/>
@@ -5043,7 +5136,7 @@
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="13"/>
       <c r="B170" s="13"/>
       <c r="E170" s="13"/>
@@ -5052,7 +5145,7 @@
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="E171" s="13"/>
@@ -5061,7 +5154,7 @@
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="13"/>
       <c r="B172" s="13"/>
       <c r="E172" s="13"/>
@@ -5070,7 +5163,7 @@
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="13"/>
       <c r="B173" s="13"/>
       <c r="E173" s="13"/>
@@ -5079,7 +5172,7 @@
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="E174" s="13"/>
@@ -5088,7 +5181,7 @@
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="13"/>
       <c r="B175" s="13"/>
       <c r="E175" s="13"/>
@@ -5097,7 +5190,7 @@
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="13"/>
       <c r="B176" s="13"/>
       <c r="E176" s="13"/>
@@ -5106,7 +5199,7 @@
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="13"/>
       <c r="B177" s="13"/>
       <c r="E177" s="13"/>
@@ -5115,7 +5208,7 @@
       <c r="H177" s="13"/>
       <c r="I177" s="13"/>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="13"/>
       <c r="B178" s="13"/>
       <c r="E178" s="13"/>
@@ -5124,7 +5217,7 @@
       <c r="H178" s="13"/>
       <c r="I178" s="13"/>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9">
       <c r="A179" s="13"/>
       <c r="B179" s="13"/>
       <c r="E179" s="13"/>
@@ -5133,7 +5226,7 @@
       <c r="H179" s="13"/>
       <c r="I179" s="13"/>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="E180" s="13"/>
@@ -5142,7 +5235,7 @@
       <c r="H180" s="13"/>
       <c r="I180" s="13"/>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9">
       <c r="A181" s="13"/>
       <c r="B181" s="13"/>
       <c r="E181" s="13"/>
@@ -5151,7 +5244,7 @@
       <c r="H181" s="13"/>
       <c r="I181" s="13"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9">
       <c r="A182" s="13"/>
       <c r="B182" s="13"/>
       <c r="E182" s="13"/>
@@ -5160,7 +5253,7 @@
       <c r="H182" s="13"/>
       <c r="I182" s="13"/>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="13"/>
       <c r="B183" s="13"/>
       <c r="E183" s="13"/>
@@ -5169,7 +5262,7 @@
       <c r="H183" s="13"/>
       <c r="I183" s="13"/>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="13"/>
       <c r="B184" s="13"/>
       <c r="E184" s="13"/>
@@ -5178,7 +5271,7 @@
       <c r="H184" s="13"/>
       <c r="I184" s="13"/>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="13"/>
       <c r="B185" s="13"/>
       <c r="E185" s="13"/>
@@ -5187,7 +5280,7 @@
       <c r="H185" s="13"/>
       <c r="I185" s="13"/>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="13"/>
       <c r="B186" s="13"/>
       <c r="E186" s="13"/>
@@ -5196,7 +5289,7 @@
       <c r="H186" s="13"/>
       <c r="I186" s="13"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="13"/>
       <c r="B187" s="13"/>
       <c r="E187" s="13"/>
@@ -5205,7 +5298,7 @@
       <c r="H187" s="13"/>
       <c r="I187" s="13"/>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="13"/>
       <c r="B188" s="13"/>
       <c r="E188" s="13"/>
@@ -5214,7 +5307,7 @@
       <c r="H188" s="13"/>
       <c r="I188" s="13"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="13"/>
       <c r="B189" s="13"/>
       <c r="E189" s="13"/>
@@ -5223,7 +5316,7 @@
       <c r="H189" s="13"/>
       <c r="I189" s="13"/>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="13"/>
       <c r="B190" s="13"/>
       <c r="E190" s="13"/>
@@ -5232,7 +5325,7 @@
       <c r="H190" s="13"/>
       <c r="I190" s="13"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="E191" s="13"/>
@@ -5241,7 +5334,7 @@
       <c r="H191" s="13"/>
       <c r="I191" s="13"/>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="13"/>
       <c r="B192" s="13"/>
       <c r="E192" s="13"/>
@@ -5250,7 +5343,7 @@
       <c r="H192" s="13"/>
       <c r="I192" s="13"/>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9">
       <c r="A193" s="13"/>
       <c r="B193" s="13"/>
       <c r="E193" s="13"/>
@@ -5259,7 +5352,7 @@
       <c r="H193" s="13"/>
       <c r="I193" s="13"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9">
       <c r="A194" s="13"/>
       <c r="B194" s="13"/>
       <c r="E194" s="13"/>
@@ -5268,7 +5361,7 @@
       <c r="H194" s="13"/>
       <c r="I194" s="13"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9">
       <c r="A195" s="13"/>
       <c r="B195" s="13"/>
       <c r="E195" s="13"/>
@@ -5277,7 +5370,7 @@
       <c r="H195" s="13"/>
       <c r="I195" s="13"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9">
       <c r="A196" s="13"/>
       <c r="B196" s="13"/>
       <c r="E196" s="13"/>
@@ -5286,7 +5379,7 @@
       <c r="H196" s="13"/>
       <c r="I196" s="13"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9">
       <c r="A197" s="13"/>
       <c r="B197" s="13"/>
       <c r="E197" s="13"/>
@@ -5295,7 +5388,7 @@
       <c r="H197" s="13"/>
       <c r="I197" s="13"/>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9">
       <c r="A198" s="13"/>
       <c r="B198" s="13"/>
       <c r="E198" s="13"/>
@@ -5304,7 +5397,7 @@
       <c r="H198" s="13"/>
       <c r="I198" s="13"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9">
       <c r="A199" s="13"/>
       <c r="B199" s="13"/>
       <c r="E199" s="13"/>
@@ -5313,7 +5406,7 @@
       <c r="H199" s="13"/>
       <c r="I199" s="13"/>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9">
       <c r="A200" s="13"/>
       <c r="B200" s="13"/>
       <c r="E200" s="13"/>
@@ -5322,7 +5415,7 @@
       <c r="H200" s="13"/>
       <c r="I200" s="13"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9">
       <c r="A201" s="13"/>
       <c r="B201" s="13"/>
       <c r="E201" s="13"/>
@@ -5331,7 +5424,7 @@
       <c r="H201" s="13"/>
       <c r="I201" s="13"/>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9">
       <c r="A202" s="13"/>
       <c r="B202" s="13"/>
       <c r="E202" s="13"/>
@@ -5340,7 +5433,7 @@
       <c r="H202" s="13"/>
       <c r="I202" s="13"/>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9">
       <c r="A203" s="13"/>
       <c r="B203" s="13"/>
       <c r="E203" s="13"/>
@@ -5349,7 +5442,7 @@
       <c r="H203" s="13"/>
       <c r="I203" s="13"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9">
       <c r="A204" s="13"/>
       <c r="B204" s="13"/>
       <c r="E204" s="13"/>
@@ -5358,7 +5451,7 @@
       <c r="H204" s="13"/>
       <c r="I204" s="13"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9">
       <c r="A205" s="13"/>
       <c r="B205" s="13"/>
       <c r="E205" s="13"/>
@@ -5367,7 +5460,7 @@
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9">
       <c r="A206" s="13"/>
       <c r="B206" s="13"/>
       <c r="E206" s="13"/>
@@ -5376,7 +5469,7 @@
       <c r="H206" s="13"/>
       <c r="I206" s="13"/>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9">
       <c r="A207" s="13"/>
       <c r="B207" s="13"/>
       <c r="E207" s="13"/>
@@ -5385,7 +5478,7 @@
       <c r="H207" s="13"/>
       <c r="I207" s="13"/>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9">
       <c r="A208" s="13"/>
       <c r="B208" s="13"/>
       <c r="E208" s="13"/>
@@ -5394,7 +5487,7 @@
       <c r="H208" s="13"/>
       <c r="I208" s="13"/>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9">
       <c r="A209" s="13"/>
       <c r="B209" s="13"/>
       <c r="E209" s="13"/>
@@ -5403,7 +5496,7 @@
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9">
       <c r="A210" s="13"/>
       <c r="B210" s="13"/>
       <c r="E210" s="13"/>
@@ -5412,7 +5505,7 @@
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9">
       <c r="A211" s="13"/>
       <c r="B211" s="13"/>
       <c r="E211" s="13"/>
@@ -5421,7 +5514,7 @@
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9">
       <c r="A212" s="13"/>
       <c r="B212" s="13"/>
       <c r="E212" s="13"/>
@@ -5430,7 +5523,7 @@
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9">
       <c r="A213" s="13"/>
       <c r="B213" s="13"/>
       <c r="E213" s="13"/>
@@ -5439,7 +5532,7 @@
       <c r="H213" s="13"/>
       <c r="I213" s="13"/>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9">
       <c r="A214" s="13"/>
       <c r="B214" s="13"/>
       <c r="E214" s="13"/>
@@ -5448,7 +5541,7 @@
       <c r="H214" s="13"/>
       <c r="I214" s="13"/>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9">
       <c r="A215" s="13"/>
       <c r="B215" s="13"/>
       <c r="E215" s="13"/>
@@ -5457,7 +5550,7 @@
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9">
       <c r="A216" s="13"/>
       <c r="B216" s="13"/>
       <c r="E216" s="13"/>
@@ -5466,7 +5559,7 @@
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9">
       <c r="A217" s="13"/>
       <c r="B217" s="13"/>
       <c r="E217" s="13"/>
@@ -5475,7 +5568,7 @@
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9">
       <c r="A218" s="13"/>
       <c r="B218" s="13"/>
       <c r="E218" s="13"/>
@@ -5484,7 +5577,7 @@
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9">
       <c r="A219" s="13"/>
       <c r="B219" s="13"/>
       <c r="E219" s="13"/>
@@ -5493,7 +5586,7 @@
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9">
       <c r="A220" s="13"/>
       <c r="B220" s="13"/>
       <c r="E220" s="13"/>
@@ -5502,7 +5595,7 @@
       <c r="H220" s="13"/>
       <c r="I220" s="13"/>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9">
       <c r="A221" s="13"/>
       <c r="B221" s="13"/>
       <c r="E221" s="13"/>
@@ -5511,7 +5604,7 @@
       <c r="H221" s="13"/>
       <c r="I221" s="13"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9">
       <c r="A222" s="13"/>
       <c r="B222" s="13"/>
       <c r="E222" s="13"/>
@@ -5520,7 +5613,7 @@
       <c r="H222" s="13"/>
       <c r="I222" s="13"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9">
       <c r="A223" s="13"/>
       <c r="B223" s="13"/>
       <c r="E223" s="13"/>
@@ -5529,7 +5622,7 @@
       <c r="H223" s="13"/>
       <c r="I223" s="13"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9">
       <c r="A224" s="13"/>
       <c r="B224" s="13"/>
       <c r="E224" s="13"/>
@@ -5538,7 +5631,7 @@
       <c r="H224" s="13"/>
       <c r="I224" s="13"/>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9">
       <c r="A225" s="13"/>
       <c r="B225" s="13"/>
       <c r="E225" s="13"/>
@@ -5547,7 +5640,7 @@
       <c r="H225" s="13"/>
       <c r="I225" s="13"/>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9">
       <c r="A226" s="13"/>
       <c r="B226" s="13"/>
       <c r="E226" s="13"/>
@@ -5556,7 +5649,7 @@
       <c r="H226" s="13"/>
       <c r="I226" s="13"/>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9">
       <c r="A227" s="13"/>
       <c r="B227" s="13"/>
       <c r="E227" s="13"/>
@@ -5565,7 +5658,7 @@
       <c r="H227" s="13"/>
       <c r="I227" s="13"/>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9">
       <c r="A228" s="13"/>
       <c r="B228" s="13"/>
       <c r="E228" s="13"/>
@@ -5574,7 +5667,7 @@
       <c r="H228" s="13"/>
       <c r="I228" s="13"/>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9">
       <c r="A229" s="13"/>
       <c r="B229" s="13"/>
       <c r="E229" s="13"/>
@@ -5583,7 +5676,7 @@
       <c r="H229" s="13"/>
       <c r="I229" s="13"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="E230" s="13"/>
@@ -5592,7 +5685,7 @@
       <c r="H230" s="13"/>
       <c r="I230" s="13"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9">
       <c r="A231" s="13"/>
       <c r="B231" s="13"/>
       <c r="E231" s="13"/>
@@ -5601,7 +5694,7 @@
       <c r="H231" s="13"/>
       <c r="I231" s="13"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9">
       <c r="A232" s="13"/>
       <c r="B232" s="13"/>
       <c r="E232" s="13"/>
@@ -5610,7 +5703,7 @@
       <c r="H232" s="13"/>
       <c r="I232" s="13"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9">
       <c r="A233" s="13"/>
       <c r="B233" s="13"/>
       <c r="E233" s="13"/>
@@ -5619,7 +5712,7 @@
       <c r="H233" s="13"/>
       <c r="I233" s="13"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9">
       <c r="A234" s="13"/>
       <c r="B234" s="13"/>
       <c r="E234" s="13"/>
@@ -5628,7 +5721,7 @@
       <c r="H234" s="13"/>
       <c r="I234" s="13"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9">
       <c r="A235" s="13"/>
       <c r="B235" s="13"/>
       <c r="E235" s="13"/>
@@ -5637,7 +5730,7 @@
       <c r="H235" s="13"/>
       <c r="I235" s="13"/>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9">
       <c r="A236" s="13"/>
       <c r="B236" s="13"/>
       <c r="E236" s="13"/>
@@ -5646,7 +5739,7 @@
       <c r="H236" s="13"/>
       <c r="I236" s="13"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9">
       <c r="A237" s="13"/>
       <c r="B237" s="13"/>
       <c r="E237" s="13"/>
@@ -5655,7 +5748,7 @@
       <c r="H237" s="13"/>
       <c r="I237" s="13"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9">
       <c r="A238" s="13"/>
       <c r="B238" s="13"/>
       <c r="E238" s="13"/>
@@ -5664,7 +5757,7 @@
       <c r="H238" s="13"/>
       <c r="I238" s="13"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9">
       <c r="A239" s="13"/>
       <c r="B239" s="13"/>
       <c r="E239" s="13"/>
@@ -5673,7 +5766,7 @@
       <c r="H239" s="13"/>
       <c r="I239" s="13"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9">
       <c r="A240" s="13"/>
       <c r="B240" s="13"/>
       <c r="E240" s="13"/>
@@ -5682,7 +5775,7 @@
       <c r="H240" s="13"/>
       <c r="I240" s="13"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9">
       <c r="A241" s="13"/>
       <c r="B241" s="13"/>
       <c r="E241" s="13"/>
@@ -5691,7 +5784,7 @@
       <c r="H241" s="13"/>
       <c r="I241" s="13"/>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
       <c r="E242" s="13"/>
@@ -5700,7 +5793,7 @@
       <c r="H242" s="13"/>
       <c r="I242" s="13"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
       <c r="E243" s="13"/>
@@ -5709,7 +5802,7 @@
       <c r="H243" s="13"/>
       <c r="I243" s="13"/>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
       <c r="E244" s="13"/>
@@ -5718,7 +5811,7 @@
       <c r="H244" s="13"/>
       <c r="I244" s="13"/>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
       <c r="E245" s="13"/>
@@ -5727,7 +5820,7 @@
       <c r="H245" s="13"/>
       <c r="I245" s="13"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
       <c r="E246" s="13"/>
@@ -5736,7 +5829,7 @@
       <c r="H246" s="13"/>
       <c r="I246" s="13"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
       <c r="E247" s="13"/>
@@ -5745,7 +5838,7 @@
       <c r="H247" s="13"/>
       <c r="I247" s="13"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
       <c r="E248" s="13"/>
@@ -5754,7 +5847,7 @@
       <c r="H248" s="13"/>
       <c r="I248" s="13"/>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
       <c r="E249" s="13"/>
@@ -5763,7 +5856,7 @@
       <c r="H249" s="13"/>
       <c r="I249" s="13"/>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
       <c r="E250" s="13"/>
@@ -5772,7 +5865,7 @@
       <c r="H250" s="13"/>
       <c r="I250" s="13"/>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9">
       <c r="A251" s="13"/>
       <c r="B251" s="13"/>
       <c r="E251" s="13"/>
@@ -5781,7 +5874,7 @@
       <c r="H251" s="13"/>
       <c r="I251" s="13"/>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
       <c r="E252" s="13"/>
@@ -5790,7 +5883,7 @@
       <c r="H252" s="13"/>
       <c r="I252" s="13"/>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
       <c r="E253" s="13"/>
@@ -5799,7 +5892,7 @@
       <c r="H253" s="13"/>
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
       <c r="E254" s="13"/>
@@ -5808,7 +5901,7 @@
       <c r="H254" s="13"/>
       <c r="I254" s="13"/>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
       <c r="E255" s="13"/>
@@ -5817,7 +5910,7 @@
       <c r="H255" s="13"/>
       <c r="I255" s="13"/>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
       <c r="E256" s="13"/>
@@ -5826,7 +5919,7 @@
       <c r="H256" s="13"/>
       <c r="I256" s="13"/>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
       <c r="E257" s="13"/>
@@ -5835,7 +5928,7 @@
       <c r="H257" s="13"/>
       <c r="I257" s="13"/>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
       <c r="E258" s="13"/>
@@ -5844,7 +5937,7 @@
       <c r="H258" s="13"/>
       <c r="I258" s="13"/>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
       <c r="E259" s="13"/>
@@ -5853,7 +5946,7 @@
       <c r="H259" s="13"/>
       <c r="I259" s="13"/>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
       <c r="E260" s="13"/>
@@ -5862,7 +5955,7 @@
       <c r="H260" s="13"/>
       <c r="I260" s="13"/>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
       <c r="E261" s="13"/>
@@ -5871,7 +5964,7 @@
       <c r="H261" s="13"/>
       <c r="I261" s="13"/>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
       <c r="E262" s="13"/>
@@ -5880,7 +5973,7 @@
       <c r="H262" s="13"/>
       <c r="I262" s="13"/>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9">
       <c r="A263" s="13"/>
       <c r="B263" s="13"/>
       <c r="E263" s="13"/>
@@ -5889,7 +5982,7 @@
       <c r="H263" s="13"/>
       <c r="I263" s="13"/>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
       <c r="E264" s="13"/>
@@ -5898,7 +5991,7 @@
       <c r="H264" s="13"/>
       <c r="I264" s="13"/>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
       <c r="E265" s="13"/>
@@ -5907,7 +6000,7 @@
       <c r="H265" s="13"/>
       <c r="I265" s="13"/>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
       <c r="E266" s="13"/>
@@ -5916,7 +6009,7 @@
       <c r="H266" s="13"/>
       <c r="I266" s="13"/>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
       <c r="E267" s="13"/>
@@ -5925,7 +6018,7 @@
       <c r="H267" s="13"/>
       <c r="I267" s="13"/>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
       <c r="E268" s="13"/>
@@ -5934,7 +6027,7 @@
       <c r="H268" s="13"/>
       <c r="I268" s="13"/>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="E269" s="13"/>
@@ -5943,7 +6036,7 @@
       <c r="H269" s="13"/>
       <c r="I269" s="13"/>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
       <c r="E270" s="13"/>
@@ -5952,7 +6045,7 @@
       <c r="H270" s="13"/>
       <c r="I270" s="13"/>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
       <c r="E271" s="13"/>
@@ -5961,7 +6054,7 @@
       <c r="H271" s="13"/>
       <c r="I271" s="13"/>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
       <c r="E272" s="13"/>
@@ -5970,7 +6063,7 @@
       <c r="H272" s="13"/>
       <c r="I272" s="13"/>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9">
       <c r="A273" s="13"/>
       <c r="B273" s="13"/>
       <c r="E273" s="13"/>
@@ -5979,7 +6072,7 @@
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="15.75" hidden="1">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="E274" s="13"/>
@@ -5988,7 +6081,7 @@
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="15.75" hidden="1">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="E275" s="13"/>
@@ -5997,7 +6090,7 @@
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="15.75" hidden="1">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="E276" s="13"/>
@@ -6006,7 +6099,7 @@
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="15.75" hidden="1">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="E277" s="13"/>
@@ -6015,7 +6108,7 @@
       <c r="H277" s="13"/>
       <c r="I277" s="13"/>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="15.75" hidden="1">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="E278" s="13"/>
@@ -6024,7 +6117,7 @@
       <c r="H278" s="13"/>
       <c r="I278" s="13"/>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="15.75" hidden="1">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="E279" s="13"/>
@@ -6033,7 +6126,7 @@
       <c r="H279" s="13"/>
       <c r="I279" s="13"/>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="15.75" hidden="1">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="E280" s="13"/>
@@ -6042,7 +6135,7 @@
       <c r="H280" s="13"/>
       <c r="I280" s="13"/>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="15.75" hidden="1">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="E281" s="13"/>
@@ -6051,7 +6144,7 @@
       <c r="H281" s="13"/>
       <c r="I281" s="13"/>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="15.75" hidden="1">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="E282" s="13"/>
@@ -6060,7 +6153,7 @@
       <c r="H282" s="13"/>
       <c r="I282" s="13"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="15.75" hidden="1">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="E283" s="13"/>
@@ -6069,7 +6162,7 @@
       <c r="H283" s="13"/>
       <c r="I283" s="13"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="15.75" hidden="1">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="E284" s="13"/>
@@ -6078,7 +6171,7 @@
       <c r="H284" s="13"/>
       <c r="I284" s="13"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="15.75" hidden="1">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="E285" s="13"/>
@@ -6087,7 +6180,7 @@
       <c r="H285" s="13"/>
       <c r="I285" s="13"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="15.75" hidden="1">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="E286" s="13"/>
@@ -6096,7 +6189,7 @@
       <c r="H286" s="13"/>
       <c r="I286" s="13"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="15.75" hidden="1">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="E287" s="13"/>
@@ -6105,7 +6198,7 @@
       <c r="H287" s="13"/>
       <c r="I287" s="13"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9">
       <c r="A288" s="13"/>
       <c r="B288" s="13"/>
       <c r="E288" s="13"/>
@@ -6114,7 +6207,7 @@
       <c r="H288" s="13"/>
       <c r="I288" s="13"/>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="E289" s="13"/>
@@ -6123,7 +6216,7 @@
       <c r="H289" s="13"/>
       <c r="I289" s="13"/>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
       <c r="E290" s="13"/>
@@ -6132,7 +6225,7 @@
       <c r="H290" s="13"/>
       <c r="I290" s="13"/>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
       <c r="E291" s="13"/>
@@ -6141,7 +6234,7 @@
       <c r="H291" s="13"/>
       <c r="I291" s="13"/>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
       <c r="E292" s="13"/>
@@ -6150,7 +6243,7 @@
       <c r="H292" s="13"/>
       <c r="I292" s="13"/>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
       <c r="E293" s="13"/>
@@ -6159,7 +6252,7 @@
       <c r="H293" s="13"/>
       <c r="I293" s="13"/>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
       <c r="E294" s="13"/>
@@ -6168,7 +6261,7 @@
       <c r="H294" s="13"/>
       <c r="I294" s="13"/>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
       <c r="E295" s="13"/>
@@ -6177,7 +6270,7 @@
       <c r="H295" s="13"/>
       <c r="I295" s="13"/>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="E296" s="13"/>
@@ -6186,7 +6279,7 @@
       <c r="H296" s="13"/>
       <c r="I296" s="13"/>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
       <c r="E297" s="13"/>
@@ -6195,7 +6288,7 @@
       <c r="H297" s="13"/>
       <c r="I297" s="13"/>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
       <c r="E298" s="13"/>
@@ -6204,7 +6297,7 @@
       <c r="H298" s="13"/>
       <c r="I298" s="13"/>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
       <c r="E299" s="13"/>
@@ -6213,7 +6306,7 @@
       <c r="H299" s="13"/>
       <c r="I299" s="13"/>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
       <c r="E300" s="13"/>
@@ -6222,7 +6315,7 @@
       <c r="H300" s="13"/>
       <c r="I300" s="13"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
       <c r="E301" s="13"/>
@@ -6231,7 +6324,7 @@
       <c r="H301" s="13"/>
       <c r="I301" s="13"/>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9">
       <c r="A302" s="13"/>
       <c r="B302" s="13"/>
       <c r="E302" s="13"/>
@@ -6240,7 +6333,7 @@
       <c r="H302" s="13"/>
       <c r="I302" s="13"/>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
       <c r="E303" s="13"/>
@@ -6249,7 +6342,7 @@
       <c r="H303" s="13"/>
       <c r="I303" s="13"/>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
       <c r="E304" s="13"/>
@@ -6258,7 +6351,7 @@
       <c r="H304" s="13"/>
       <c r="I304" s="13"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
       <c r="E305" s="13"/>
@@ -6267,7 +6360,7 @@
       <c r="H305" s="13"/>
       <c r="I305" s="13"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
       <c r="E306" s="13"/>
@@ -6276,7 +6369,7 @@
       <c r="H306" s="13"/>
       <c r="I306" s="13"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
       <c r="E307" s="13"/>
@@ -6285,7 +6378,7 @@
       <c r="H307" s="13"/>
       <c r="I307" s="13"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
       <c r="E308" s="13"/>
@@ -6294,7 +6387,7 @@
       <c r="H308" s="13"/>
       <c r="I308" s="13"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
       <c r="E309" s="13"/>
@@ -6303,7 +6396,7 @@
       <c r="H309" s="13"/>
       <c r="I309" s="13"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
       <c r="E310" s="13"/>
@@ -6312,7 +6405,7 @@
       <c r="H310" s="13"/>
       <c r="I310" s="13"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
       <c r="E311" s="13"/>
@@ -6321,7 +6414,7 @@
       <c r="H311" s="13"/>
       <c r="I311" s="13"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
       <c r="E312" s="13"/>
@@ -6330,7 +6423,7 @@
       <c r="H312" s="13"/>
       <c r="I312" s="13"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9">
       <c r="A313" s="13"/>
       <c r="B313" s="13"/>
       <c r="E313" s="13"/>
@@ -6339,7 +6432,7 @@
       <c r="H313" s="13"/>
       <c r="I313" s="13"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
       <c r="E314" s="13"/>
@@ -6348,7 +6441,7 @@
       <c r="H314" s="13"/>
       <c r="I314" s="13"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
       <c r="E315" s="13"/>
@@ -6357,7 +6450,7 @@
       <c r="H315" s="13"/>
       <c r="I315" s="13"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
       <c r="E316" s="13"/>
@@ -6366,7 +6459,7 @@
       <c r="H316" s="13"/>
       <c r="I316" s="13"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
       <c r="E317" s="13"/>
@@ -6375,7 +6468,7 @@
       <c r="H317" s="13"/>
       <c r="I317" s="13"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
       <c r="E318" s="13"/>
@@ -6384,7 +6477,7 @@
       <c r="H318" s="13"/>
       <c r="I318" s="13"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
       <c r="E319" s="13"/>
@@ -6393,7 +6486,7 @@
       <c r="H319" s="13"/>
       <c r="I319" s="13"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
       <c r="E320" s="13"/>
@@ -6402,7 +6495,7 @@
       <c r="H320" s="13"/>
       <c r="I320" s="13"/>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
       <c r="E321" s="13"/>
@@ -6411,7 +6504,7 @@
       <c r="H321" s="13"/>
       <c r="I321" s="13"/>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
       <c r="E322" s="13"/>
@@ -6420,7 +6513,7 @@
       <c r="H322" s="13"/>
       <c r="I322" s="13"/>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
       <c r="E323" s="13"/>
@@ -6429,7 +6522,7 @@
       <c r="H323" s="13"/>
       <c r="I323" s="13"/>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
       <c r="E324" s="13"/>
@@ -6438,7 +6531,7 @@
       <c r="H324" s="13"/>
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
       <c r="E325" s="13"/>
@@ -6447,7 +6540,7 @@
       <c r="H325" s="13"/>
       <c r="I325" s="13"/>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9">
       <c r="A326" s="13"/>
       <c r="B326" s="13"/>
       <c r="E326" s="13"/>
@@ -6456,7 +6549,7 @@
       <c r="H326" s="13"/>
       <c r="I326" s="13"/>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
       <c r="E327" s="13"/>
@@ -6465,7 +6558,7 @@
       <c r="H327" s="13"/>
       <c r="I327" s="13"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
       <c r="E328" s="13"/>
@@ -6474,7 +6567,7 @@
       <c r="H328" s="13"/>
       <c r="I328" s="13"/>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
       <c r="E329" s="13"/>
@@ -6483,7 +6576,7 @@
       <c r="H329" s="13"/>
       <c r="I329" s="13"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9">
       <c r="A330" s="13"/>
       <c r="B330" s="13"/>
       <c r="E330" s="13"/>
@@ -6492,7 +6585,7 @@
       <c r="H330" s="13"/>
       <c r="I330" s="13"/>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9">
       <c r="A331" s="13"/>
       <c r="B331" s="13"/>
       <c r="E331" s="13"/>
@@ -6501,7 +6594,7 @@
       <c r="H331" s="13"/>
       <c r="I331" s="13"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9">
       <c r="A332" s="13"/>
       <c r="B332" s="13"/>
       <c r="E332" s="13"/>
@@ -6510,7 +6603,7 @@
       <c r="H332" s="13"/>
       <c r="I332" s="13"/>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9">
       <c r="A333" s="13"/>
       <c r="B333" s="13"/>
       <c r="E333" s="13"/>
@@ -6519,7 +6612,7 @@
       <c r="H333" s="13"/>
       <c r="I333" s="13"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9">
       <c r="A334" s="13"/>
       <c r="B334" s="13"/>
       <c r="E334" s="13"/>
@@ -6528,7 +6621,7 @@
       <c r="H334" s="13"/>
       <c r="I334" s="13"/>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9">
       <c r="A335" s="13"/>
       <c r="B335" s="13"/>
       <c r="E335" s="13"/>
@@ -6537,7 +6630,7 @@
       <c r="H335" s="13"/>
       <c r="I335" s="13"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9">
       <c r="A336" s="13"/>
       <c r="B336" s="13"/>
       <c r="E336" s="13"/>
@@ -6546,7 +6639,7 @@
       <c r="H336" s="13"/>
       <c r="I336" s="13"/>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9">
       <c r="A337" s="13"/>
       <c r="B337" s="13"/>
       <c r="E337" s="13"/>
@@ -6555,7 +6648,7 @@
       <c r="H337" s="13"/>
       <c r="I337" s="13"/>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9">
       <c r="A338" s="13"/>
       <c r="B338" s="13"/>
       <c r="E338" s="13"/>
@@ -6564,7 +6657,7 @@
       <c r="H338" s="13"/>
       <c r="I338" s="13"/>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9">
       <c r="A339" s="13"/>
       <c r="B339" s="13"/>
       <c r="E339" s="13"/>
@@ -6573,7 +6666,7 @@
       <c r="H339" s="13"/>
       <c r="I339" s="13"/>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9">
       <c r="A340" s="13"/>
       <c r="B340" s="13"/>
       <c r="E340" s="13"/>
@@ -6582,7 +6675,7 @@
       <c r="H340" s="13"/>
       <c r="I340" s="13"/>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9">
       <c r="A341" s="13"/>
       <c r="B341" s="13"/>
       <c r="E341" s="13"/>
@@ -6591,7 +6684,7 @@
       <c r="H341" s="13"/>
       <c r="I341" s="13"/>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9">
       <c r="A342" s="13"/>
       <c r="B342" s="13"/>
       <c r="E342" s="13"/>
@@ -6600,7 +6693,7 @@
       <c r="H342" s="13"/>
       <c r="I342" s="13"/>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9">
       <c r="A343" s="13"/>
       <c r="B343" s="13"/>
       <c r="E343" s="13"/>
@@ -6609,7 +6702,7 @@
       <c r="H343" s="13"/>
       <c r="I343" s="13"/>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9">
       <c r="A344" s="13"/>
       <c r="B344" s="13"/>
       <c r="E344" s="13"/>
@@ -6618,7 +6711,7 @@
       <c r="H344" s="13"/>
       <c r="I344" s="13"/>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9">
       <c r="A345" s="13"/>
       <c r="B345" s="13"/>
       <c r="E345" s="13"/>
@@ -6627,7 +6720,7 @@
       <c r="H345" s="13"/>
       <c r="I345" s="13"/>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9">
       <c r="A346" s="13"/>
       <c r="B346" s="13"/>
       <c r="E346" s="13"/>
@@ -6636,7 +6729,7 @@
       <c r="H346" s="13"/>
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9">
       <c r="A347" s="13"/>
       <c r="B347" s="13"/>
       <c r="E347" s="13"/>
@@ -6645,7 +6738,7 @@
       <c r="H347" s="13"/>
       <c r="I347" s="13"/>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9">
       <c r="A348" s="13"/>
       <c r="B348" s="13"/>
       <c r="E348" s="13"/>
@@ -6654,7 +6747,7 @@
       <c r="H348" s="13"/>
       <c r="I348" s="13"/>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9">
       <c r="A349" s="13"/>
       <c r="B349" s="13"/>
       <c r="E349" s="13"/>
@@ -6663,7 +6756,7 @@
       <c r="H349" s="13"/>
       <c r="I349" s="13"/>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9">
       <c r="A350" s="13"/>
       <c r="B350" s="13"/>
       <c r="E350" s="13"/>
@@ -6672,7 +6765,7 @@
       <c r="H350" s="13"/>
       <c r="I350" s="13"/>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9">
       <c r="A351" s="13"/>
       <c r="B351" s="13"/>
       <c r="E351" s="13"/>
@@ -6681,7 +6774,7 @@
       <c r="H351" s="13"/>
       <c r="I351" s="13"/>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9">
       <c r="A352" s="13"/>
       <c r="B352" s="13"/>
       <c r="E352" s="13"/>
@@ -6690,7 +6783,7 @@
       <c r="H352" s="13"/>
       <c r="I352" s="13"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9">
       <c r="A353" s="13"/>
       <c r="B353" s="13"/>
       <c r="E353" s="13"/>
@@ -6699,7 +6792,7 @@
       <c r="H353" s="13"/>
       <c r="I353" s="13"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9">
       <c r="A354" s="13"/>
       <c r="B354" s="13"/>
       <c r="E354" s="13"/>
@@ -6708,7 +6801,7 @@
       <c r="H354" s="13"/>
       <c r="I354" s="13"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9">
       <c r="A355" s="13"/>
       <c r="B355" s="13"/>
       <c r="E355" s="13"/>
@@ -6717,7 +6810,7 @@
       <c r="H355" s="13"/>
       <c r="I355" s="13"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9">
       <c r="A356" s="13"/>
       <c r="B356" s="13"/>
       <c r="E356" s="13"/>
@@ -6726,7 +6819,7 @@
       <c r="H356" s="13"/>
       <c r="I356" s="13"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9">
       <c r="A357" s="13"/>
       <c r="B357" s="13"/>
       <c r="E357" s="13"/>
@@ -6735,7 +6828,7 @@
       <c r="H357" s="13"/>
       <c r="I357" s="13"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9">
       <c r="A358" s="13"/>
       <c r="B358" s="13"/>
       <c r="E358" s="13"/>
@@ -6744,7 +6837,7 @@
       <c r="H358" s="13"/>
       <c r="I358" s="13"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9">
       <c r="A359" s="13"/>
       <c r="B359" s="13"/>
       <c r="E359" s="13"/>
@@ -6753,7 +6846,7 @@
       <c r="H359" s="13"/>
       <c r="I359" s="13"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9">
       <c r="A360" s="13"/>
       <c r="B360" s="13"/>
       <c r="E360" s="13"/>
@@ -6762,7 +6855,7 @@
       <c r="H360" s="13"/>
       <c r="I360" s="13"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9">
       <c r="A361" s="13"/>
       <c r="B361" s="13"/>
       <c r="E361" s="13"/>
@@ -6771,7 +6864,7 @@
       <c r="H361" s="13"/>
       <c r="I361" s="13"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9">
       <c r="A362" s="13"/>
       <c r="B362" s="13"/>
       <c r="E362" s="13"/>
@@ -6780,7 +6873,7 @@
       <c r="H362" s="13"/>
       <c r="I362" s="13"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9">
       <c r="A363" s="13"/>
       <c r="B363" s="13"/>
       <c r="E363" s="13"/>
@@ -6789,7 +6882,7 @@
       <c r="H363" s="13"/>
       <c r="I363" s="13"/>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9">
       <c r="A364" s="13"/>
       <c r="B364" s="13"/>
       <c r="E364" s="13"/>
@@ -6798,7 +6891,7 @@
       <c r="H364" s="13"/>
       <c r="I364" s="13"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9">
       <c r="A365" s="13"/>
       <c r="B365" s="13"/>
       <c r="E365" s="13"/>
@@ -6807,7 +6900,7 @@
       <c r="H365" s="13"/>
       <c r="I365" s="13"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9">
       <c r="A366" s="13"/>
       <c r="B366" s="13"/>
       <c r="E366" s="13"/>
@@ -6816,7 +6909,7 @@
       <c r="H366" s="13"/>
       <c r="I366" s="13"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9">
       <c r="A367" s="13"/>
       <c r="B367" s="13"/>
       <c r="E367" s="13"/>
@@ -6825,7 +6918,7 @@
       <c r="H367" s="13"/>
       <c r="I367" s="13"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9">
       <c r="A368" s="13"/>
       <c r="B368" s="13"/>
       <c r="E368" s="13"/>
@@ -6834,7 +6927,7 @@
       <c r="H368" s="13"/>
       <c r="I368" s="13"/>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9">
       <c r="A369" s="13"/>
       <c r="B369" s="13"/>
       <c r="E369" s="13"/>
@@ -6843,7 +6936,7 @@
       <c r="H369" s="13"/>
       <c r="I369" s="13"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9">
       <c r="A370" s="13"/>
       <c r="B370" s="13"/>
       <c r="E370" s="13"/>
@@ -6852,7 +6945,7 @@
       <c r="H370" s="13"/>
       <c r="I370" s="13"/>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9">
       <c r="A371" s="13"/>
       <c r="B371" s="13"/>
       <c r="E371" s="13"/>
@@ -6861,7 +6954,7 @@
       <c r="H371" s="13"/>
       <c r="I371" s="13"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9">
       <c r="A372" s="13"/>
       <c r="B372" s="13"/>
       <c r="E372" s="13"/>
@@ -6870,7 +6963,7 @@
       <c r="H372" s="13"/>
       <c r="I372" s="13"/>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9">
       <c r="A373" s="13"/>
       <c r="B373" s="13"/>
       <c r="E373" s="13"/>
@@ -6879,7 +6972,7 @@
       <c r="H373" s="13"/>
       <c r="I373" s="13"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9">
       <c r="A374" s="13"/>
       <c r="B374" s="13"/>
       <c r="E374" s="13"/>
@@ -6888,7 +6981,7 @@
       <c r="H374" s="13"/>
       <c r="I374" s="13"/>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9">
       <c r="A375" s="13"/>
       <c r="B375" s="13"/>
       <c r="E375" s="13"/>
@@ -6897,7 +6990,7 @@
       <c r="H375" s="13"/>
       <c r="I375" s="13"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9">
       <c r="A376" s="13"/>
       <c r="B376" s="13"/>
       <c r="E376" s="13"/>
@@ -6906,7 +6999,7 @@
       <c r="H376" s="13"/>
       <c r="I376" s="13"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9">
       <c r="A377" s="13"/>
       <c r="B377" s="13"/>
       <c r="E377" s="13"/>
@@ -6915,7 +7008,7 @@
       <c r="H377" s="13"/>
       <c r="I377" s="13"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9">
       <c r="A378" s="13"/>
       <c r="B378" s="13"/>
       <c r="E378" s="13"/>
@@ -6924,7 +7017,7 @@
       <c r="H378" s="13"/>
       <c r="I378" s="13"/>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9">
       <c r="A379" s="13"/>
       <c r="B379" s="13"/>
       <c r="E379" s="13"/>
@@ -6933,7 +7026,7 @@
       <c r="H379" s="13"/>
       <c r="I379" s="13"/>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9">
       <c r="A380" s="13"/>
       <c r="B380" s="13"/>
       <c r="E380" s="13"/>
@@ -6941,6 +7034,51 @@
       <c r="G380" s="13"/>
       <c r="H380" s="13"/>
       <c r="I380" s="13"/>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" s="13"/>
+      <c r="B381" s="13"/>
+      <c r="E381" s="13"/>
+      <c r="F381" s="13"/>
+      <c r="G381" s="13"/>
+      <c r="H381" s="13"/>
+      <c r="I381" s="13"/>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" s="13"/>
+      <c r="B382" s="13"/>
+      <c r="E382" s="13"/>
+      <c r="F382" s="13"/>
+      <c r="G382" s="13"/>
+      <c r="H382" s="13"/>
+      <c r="I382" s="13"/>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" s="13"/>
+      <c r="B383" s="13"/>
+      <c r="E383" s="13"/>
+      <c r="F383" s="13"/>
+      <c r="G383" s="13"/>
+      <c r="H383" s="13"/>
+      <c r="I383" s="13"/>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" s="13"/>
+      <c r="B384" s="13"/>
+      <c r="E384" s="13"/>
+      <c r="F384" s="13"/>
+      <c r="G384" s="13"/>
+      <c r="H384" s="13"/>
+      <c r="I384" s="13"/>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" s="13"/>
+      <c r="B385" s="13"/>
+      <c r="E385" s="13"/>
+      <c r="F385" s="13"/>
+      <c r="G385" s="13"/>
+      <c r="H385" s="13"/>
+      <c r="I385" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Booking_Reporting/artifacts/service_model/information_model/IEPD/documentation/BookingReportMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Booking_Reporting/artifacts/service_model/information_model/IEPD/documentation/BookingReportMapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1340" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="-25560" yWindow="6880" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Booking Report" sheetId="1" r:id="rId1"/>
@@ -439,174 +439,21 @@
     <t>A text description of a residence</t>
   </si>
   <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:DocumentCreationDate/nc:DateTime</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:DocumentIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/intel:SystemIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/intel:SystemIdentification/nc:SystemName</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonBirthDate/nc:Date</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonEthnicityCode</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonRaceCode</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonSSNIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonStateFingerprintIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonGivenName</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]nc:PersonName/nc:PersonMiddleName</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonSurName</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonSexCode</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:BailBond[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:BailBondChargeAssociation/j:BailBond/@structures:ref]/j:BailBondAmount/nc:Amount</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:BailBond[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:BailBondChargeAssociation/j:BailBond/@structures:ref]/nc:ActivityCategoryText</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/j:SubjectIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Booking[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:BookingDetentionFacility/nc:FacilityIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/cyfs:NextCourtEvent[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:CourtEventCourt/j:CourtName</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/cyfs:NextCourtEvent[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:Date</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Charge[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeSequenceID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Charge[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeDescriptionText</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Charge[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeStatute/j:StatuteCodeSectionIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> /br-doc:BookingReports/br-ext:BookingReport/j:Charge[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeCategoryDescriptionText</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Charge[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeHighestIndicator</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Detention[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/br-ext:HoldForAgency/nc:OrganizationName</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Detention[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/br-ext:DetentiontImmigrationHoldIndicator</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Detention[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionReleaseDate/nc:Date</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Detention[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionAreaIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Detention[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionBedIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Detention[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionCellIdentification/nc:IdentificationID</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonResidentText</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/br-ext:PersonSocioEconomicStatusDescriptionText</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/nc:EmployeeOccupationCategoryText</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonMilitarySummary/nc:MilitaryExperienceIndicator</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonEducationLevelText</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:BailBond[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:BailBondChargeAssociation/j:BailBond/@structures:ref]/nc:ActivityStatus/nc:StatusDescriptionText</t>
-  </si>
-  <si>
     <t>Booking Date/Time</t>
   </si>
   <si>
-    <r>
-      <t>/br-doc:BookingReports/br-ext:BookingReport/j:Booking[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Time</t>
-    </r>
-  </si>
-  <si>
     <t>Arrest Location</t>
   </si>
   <si>
     <t>Arrest</t>
   </si>
   <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Location[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Address/nc:AddressFullText</t>
-  </si>
-  <si>
     <t>Release Date/Time</t>
   </si>
   <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Detention[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:Date</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/j:Detention[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionReleaseDate/nc:DateTime</t>
-  </si>
-  <si>
-    <t>br-doc:BookingReports/br-ext:BookingReport/j:Arrest/j:ArrestAgency/nc:OrganizationName</t>
-  </si>
-  <si>
-    <t>br-doc:BookingReports/br-ext:BookingReport/j:Detention/nc:SupervisionCustodyStatus/nc:StatusDescriptionText</t>
-  </si>
-  <si>
     <t>x-ext-code</t>
   </si>
   <si>
-    <t>br-doc:BookingReports/br-ext:BookingReport/j:Detention/j:SupervisionAugmentation/j:SupervisionBedIdentification/ac-bkg-codes:BedCategoryCode</t>
-  </si>
-  <si>
-    <t>br-doc:BookingReports/br-ext:BookingReport/j:Detention/nc:SupervisionCustodyStatus/ac-bkg-codes:PreTrialCategoryCode</t>
-  </si>
-  <si>
-    <t>br-doc:BookingReports/br-ext:BookingReport/j:Detention/br-ext:InmateWorkReleaseIndicator</t>
-  </si>
-  <si>
-    <t>br-doc:BookingReports/br-ext:BookingReport/j:Detention/br-ext:InmateWorkerIndicator</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonCriminalHistorySummary/j:RegisteredSexualOffenderIndicator</t>
-  </si>
-  <si>
     <t>Person Primary Language</t>
   </si>
   <si>
@@ -625,16 +472,157 @@
     <t>Case Court Name</t>
   </si>
   <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Person[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonPrimaryLanguage/nc:LanguageName</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Case[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:CaseAugmentation/j:CaseCourt/j:CourtName</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Location[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
-  </si>
-  <si>
-    <t>/br-doc:BookingReports/br-ext:BookingReport/nc:Location[@structures:id=/br-doc:BookingReports/br-ext:BookingReport/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeDegreeValue</t>
+    <t>/br-doc:BookingReport/nc:DocumentCreationDate/nc:DateTime</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:DocumentIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/intel:SystemIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/intel:SystemIdentification/nc:SystemName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Case[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:CaseAugmentation/j:CaseCourt/j:CourtName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonBirthDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonEthnicityCode</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonRaceCode</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonSSNIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonStateFingerprintIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonGivenName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]nc:PersonName/nc:PersonMiddleName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonName/nc:PersonSurName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonSexCode</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonResidentText</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/br-ext:PersonSocioEconomicStatusDescriptionText</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonAugmentation/nc:EmployeeOccupationCategoryText</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonMilitarySummary/nc:MilitaryExperienceIndicator</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/j:PersonCriminalHistorySummary/j:RegisteredSexualOffenderIndicator</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonEducationLevelText</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Person[@structures:id=/br-doc:BookingReport/j:Booking/j:BookingSubject/nc:RoleOfPerson/@structures:ref]/nc:PersonPrimaryLanguage/nc:LanguageName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:BailBond[@structures:id=/br-doc:BookingReport/j:BailBondChargeAssociation/j:BailBond/@structures:ref]/j:BailBondAmount/nc:Amount</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:BailBond[@structures:id=/br-doc:BookingReport/j:BailBondChargeAssociation/j:BailBond/@structures:ref]/nc:ActivityCategoryText</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:BailBond[@structures:id=/br-doc:BookingReport/j:BailBondChargeAssociation/j:BailBond/@structures:ref]/nc:ActivityStatus/nc:StatusDescriptionText</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Booking/j:BookingSubject/j:SubjectIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Booking[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:DateTime</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Booking[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:BookingDetentionFacility/nc:FacilityIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/cyfs:NextCourtEvent[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:CourtEventCourt/j:CourtName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/cyfs:NextCourtEvent[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Charge[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeSequenceID</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Charge[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeDescriptionText</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Charge[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeStatute/j:StatuteCodeSectionIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /br-doc:BookingReport/j:Charge[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeCategoryDescriptionText</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Charge[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/j:Charge/@structures:ref]/j:ChargeHighestIndicator</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Location[@structures:id=/br-doc:BookingReport/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Address/nc:AddressFullText</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Location[@structures:id=/br-doc:BookingReport/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLatitude/nc:LatitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/nc:Location[@structures:id=/br-doc:BookingReport/j:Arrest/j:ArrestLocation/@structures:ref]/nc:Location2DGeospatialCoordinate/nc:GeographicCoordinateLongitude/nc:LongitudeDegreeValue</t>
+  </si>
+  <si>
+    <t>br-doc:BookingReport/j:Arrest/j:ArrestAgency/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Detention[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionReleaseDate/nc:DateTime</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Detention[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/nc:ActivityDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Detention[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/br-ext:HoldForAgency/nc:OrganizationName</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Detention[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/br-ext:DetentiontImmigrationHoldIndicator</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Detention[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionReleaseDate/nc:Date</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Detention[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionAreaIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Detention[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionBedIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>/br-doc:BookingReport/j:Detention[@structures:id=/br-doc:BookingReport/j:ActivityChargeAssociation/nc:Activity/@structures:ref]/j:SupervisionAugmentation/j:SupervisionCellIdentification/nc:IdentificationID</t>
+  </si>
+  <si>
+    <t>br-doc:BookingReport/j:Detention/j:SupervisionAugmentation/j:SupervisionBedIdentification/ac-bkg-codes:BedCategoryCode</t>
+  </si>
+  <si>
+    <t>br-doc:BookingReport/j:Detention/nc:SupervisionCustodyStatus/ac-bkg-codes:PreTrialCategoryCode</t>
+  </si>
+  <si>
+    <t>br-doc:BookingReport/j:Detention/nc:SupervisionCustodyStatus/nc:StatusDescriptionText</t>
+  </si>
+  <si>
+    <t>br-doc:BookingReport/j:Detention/br-ext:InmateWorkReleaseIndicator</t>
+  </si>
+  <si>
+    <t>br-doc:BookingReport/j:Detention/br-ext:InmateWorkerIndicator</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2683,8 @@
   <dimension ref="A1:L385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2726,7 +2714,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="47.25">
+    <row r="2" spans="1:12" ht="45">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -2780,7 +2768,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="31.5">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
         <v>7</v>
@@ -2790,7 +2778,7 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>10</v>
@@ -2812,7 +2800,7 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>10</v>
@@ -2850,7 +2838,7 @@
       </c>
       <c r="D7" s="17"/>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -2872,7 +2860,7 @@
       </c>
       <c r="D8" s="17"/>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -2886,7 +2874,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -2903,12 +2891,12 @@
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="18" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -2933,7 +2921,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="31.5">
+    <row r="12" spans="1:12" ht="30">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>14</v>
@@ -2943,7 +2931,7 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="18" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>21</v>
@@ -2962,7 +2950,7 @@
       </c>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:12" ht="31.5">
+    <row r="13" spans="1:12" ht="30">
       <c r="A13" s="9"/>
       <c r="B13" s="9" t="s">
         <v>2</v>
@@ -2972,7 +2960,7 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="18" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2987,7 +2975,7 @@
       </c>
       <c r="K13" s="24"/>
     </row>
-    <row r="14" spans="1:12" ht="31.5">
+    <row r="14" spans="1:12" ht="30">
       <c r="A14" s="9"/>
       <c r="B14" s="9" t="s">
         <v>0</v>
@@ -2997,7 +2985,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="18" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
@@ -3014,7 +3002,7 @@
       </c>
       <c r="K14" s="24"/>
     </row>
-    <row r="15" spans="1:12" ht="47.25">
+    <row r="15" spans="1:12" ht="45">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
         <v>54</v>
@@ -3024,7 +3012,7 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="19" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
@@ -3044,7 +3032,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="47.25">
+    <row r="16" spans="1:12" ht="45">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>57</v>
@@ -3054,7 +3042,7 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="19" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="18" t="s">
@@ -3074,7 +3062,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="47.25">
+    <row r="17" spans="1:12" ht="45">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>61</v>
@@ -3084,7 +3072,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="19" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>21</v>
@@ -3106,7 +3094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="47.25">
+    <row r="18" spans="1:12" ht="45">
       <c r="A18" s="9"/>
       <c r="B18" s="9" t="s">
         <v>62</v>
@@ -3116,7 +3104,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="19" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>21</v>
@@ -3138,7 +3126,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="47.25">
+    <row r="19" spans="1:12" ht="45">
       <c r="A19" s="9"/>
       <c r="B19" s="9" t="s">
         <v>63</v>
@@ -3148,7 +3136,7 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="19" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>21</v>
@@ -3170,7 +3158,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="31.5">
+    <row r="20" spans="1:12" ht="30">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>1</v>
@@ -3180,7 +3168,7 @@
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>21</v>
@@ -3197,7 +3185,7 @@
       </c>
       <c r="K20" s="24"/>
     </row>
-    <row r="21" spans="1:12" ht="31.5">
+    <row r="21" spans="1:12" ht="30">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>121</v>
@@ -3207,7 +3195,7 @@
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -3221,7 +3209,7 @@
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="1:12" ht="47.25">
+    <row r="22" spans="1:12" ht="45">
       <c r="A22" s="10" t="s">
         <v>44</v>
       </c>
@@ -3233,7 +3221,7 @@
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="30" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -3247,7 +3235,7 @@
       <c r="K22" s="33"/>
       <c r="L22" s="33"/>
     </row>
-    <row r="23" spans="1:12" ht="47.25">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>102</v>
@@ -3257,7 +3245,7 @@
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="30" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -3271,7 +3259,7 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
     </row>
-    <row r="24" spans="1:12" ht="47.25">
+    <row r="24" spans="1:12" ht="45">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>103</v>
@@ -3281,7 +3269,7 @@
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="30" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -3305,7 +3293,7 @@
       </c>
       <c r="D25" s="28"/>
       <c r="E25" s="30" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -3319,7 +3307,7 @@
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
     </row>
-    <row r="26" spans="1:12" ht="47.25">
+    <row r="26" spans="1:12" ht="30">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>101</v>
@@ -3329,7 +3317,7 @@
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -3346,12 +3334,12 @@
     <row r="27" spans="1:12" ht="45">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="28"/>
       <c r="E27" s="30" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -3377,7 +3365,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="31.5">
+    <row r="29" spans="1:12" ht="30">
       <c r="A29" s="13"/>
       <c r="B29" s="10" t="s">
         <v>18</v>
@@ -3386,7 +3374,7 @@
         <v>36</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="F29" s="11" t="s">
         <v>21</v>
@@ -3400,7 +3388,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="31.5">
+    <row r="30" spans="1:12" ht="30">
       <c r="A30" s="13"/>
       <c r="B30" s="10" t="s">
         <v>19</v>
@@ -3410,7 +3398,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="12" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F30" s="11" t="s">
         <v>21</v>
@@ -3424,7 +3412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="78.75">
+    <row r="31" spans="1:12" ht="75">
       <c r="A31" s="34"/>
       <c r="B31" s="35" t="s">
         <v>79</v>
@@ -3434,7 +3422,7 @@
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="36"/>
@@ -3466,7 +3454,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" s="14" customFormat="1" ht="31.5">
+    <row r="33" spans="1:12" s="14" customFormat="1" ht="30">
       <c r="B33" s="16" t="s">
         <v>53</v>
       </c>
@@ -3475,7 +3463,7 @@
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="13" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="F33" s="22" t="s">
         <v>21</v>
@@ -3493,17 +3481,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="31.5">
+    <row r="34" spans="1:12" ht="30">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>21</v>
@@ -3519,7 +3507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="47.25">
+    <row r="35" spans="1:12" ht="45">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
         <v>22</v>
@@ -3529,7 +3517,7 @@
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="12" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="F35" s="8"/>
       <c r="G35" s="8" t="s">
@@ -3557,7 +3545,7 @@
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="47.25">
+    <row r="37" spans="1:12" ht="30">
       <c r="A37" s="13"/>
       <c r="B37" s="37" t="s">
         <v>109</v>
@@ -3565,7 +3553,7 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="18" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
@@ -3590,7 +3578,7 @@
         <v>46</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>21</v>
@@ -3620,7 +3608,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="31.5">
+    <row r="40" spans="1:12" ht="30">
       <c r="A40" s="13"/>
       <c r="B40" s="10" t="s">
         <v>17</v>
@@ -3629,7 +3617,7 @@
         <v>47</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>21</v>
@@ -3643,7 +3631,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="31.5">
+    <row r="41" spans="1:12" ht="30">
       <c r="A41" s="13"/>
       <c r="B41" s="10" t="s">
         <v>9</v>
@@ -3652,7 +3640,7 @@
         <v>37</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>21</v>
@@ -3666,7 +3654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="47.25">
+    <row r="42" spans="1:12" ht="45">
       <c r="A42" s="13"/>
       <c r="B42" s="10" t="s">
         <v>108</v>
@@ -3675,7 +3663,7 @@
         <v>48</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>21</v>
@@ -3689,7 +3677,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="173.25">
+    <row r="43" spans="1:12" ht="165">
       <c r="A43" s="34"/>
       <c r="B43" s="35" t="s">
         <v>88</v>
@@ -3699,7 +3687,7 @@
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="35" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="36"/>
@@ -3715,7 +3703,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="31.5">
+    <row r="44" spans="1:12" ht="30">
       <c r="A44" s="20" t="s">
         <v>44</v>
       </c>
@@ -3727,7 +3715,7 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="18" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
@@ -3740,7 +3728,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="6" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3754,17 +3742,17 @@
       <c r="K45" s="7"/>
       <c r="L45" s="26"/>
     </row>
-    <row r="46" spans="1:12" ht="63">
+    <row r="46" spans="1:12" ht="60">
       <c r="A46" s="34"/>
       <c r="B46" s="39" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C46" s="38" t="s">
         <v>117</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="30" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="36"/>
@@ -3781,12 +3769,12 @@
     <row r="47" spans="1:12" ht="45">
       <c r="A47" s="34"/>
       <c r="B47" s="39" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="32"/>
       <c r="E47" s="30" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="36"/>
@@ -3799,12 +3787,12 @@
     <row r="48" spans="1:12" ht="45">
       <c r="A48" s="34"/>
       <c r="B48" s="39" t="s">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="32"/>
       <c r="E48" s="30" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="36"/>
@@ -3814,7 +3802,7 @@
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
     </row>
-    <row r="49" spans="1:12" ht="63">
+    <row r="49" spans="1:12" ht="60">
       <c r="A49" s="36"/>
       <c r="B49" s="38" t="s">
         <v>87</v>
@@ -3824,7 +3812,7 @@
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="30" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="36"/>
@@ -3850,16 +3838,16 @@
       <c r="K50" s="7"/>
       <c r="L50" s="26"/>
     </row>
-    <row r="51" spans="1:12" ht="47.25">
+    <row r="51" spans="1:12" ht="45">
       <c r="A51" s="13"/>
       <c r="B51" s="10" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13" t="s">
@@ -3875,7 +3863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="31.5">
+    <row r="52" spans="1:12" ht="30">
       <c r="A52" s="13"/>
       <c r="B52" s="10" t="s">
         <v>23</v>
@@ -3884,7 +3872,7 @@
         <v>39</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13" t="s">
@@ -3901,7 +3889,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="47.25">
+    <row r="53" spans="1:12" ht="45">
       <c r="A53" s="13" t="s">
         <v>44</v>
       </c>
@@ -3913,7 +3901,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="17" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>21</v>
@@ -3930,7 +3918,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="47.25">
+    <row r="54" spans="1:12" ht="45">
       <c r="A54" s="13" t="s">
         <v>44</v>
       </c>
@@ -3941,7 +3929,7 @@
         <v>49</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>21</v>
@@ -3955,7 +3943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="47.25">
+    <row r="55" spans="1:12" ht="45">
       <c r="B55" s="10" t="s">
         <v>42</v>
       </c>
@@ -3963,7 +3951,7 @@
         <v>41</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>21</v>
@@ -3982,7 +3970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="47.25">
+    <row r="56" spans="1:12" ht="45">
       <c r="A56" s="13"/>
       <c r="B56" s="9" t="s">
         <v>64</v>
@@ -3992,7 +3980,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="12" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="20" t="s">
@@ -4004,7 +3992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="47.25">
+    <row r="57" spans="1:12" ht="45">
       <c r="A57" s="13"/>
       <c r="B57" s="9" t="s">
         <v>65</v>
@@ -4014,7 +4002,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="12" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="20" t="s">
@@ -4026,7 +4014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="47.25">
+    <row r="58" spans="1:12" ht="45">
       <c r="A58" s="13"/>
       <c r="B58" s="4" t="s">
         <v>66</v>
@@ -4036,7 +4024,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="12" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="20" t="s">
@@ -4048,9 +4036,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="47.25">
+    <row r="59" spans="1:12" ht="45">
       <c r="A59" s="20" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>72</v>
@@ -4060,7 +4048,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="17" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
@@ -4072,17 +4060,17 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="A60" s="20" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="17" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
@@ -4094,7 +4082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="31.5">
+    <row r="61" spans="1:12" ht="30">
       <c r="A61" s="34"/>
       <c r="B61" s="38" t="s">
         <v>91</v>
@@ -4104,7 +4092,7 @@
       </c>
       <c r="D61" s="32"/>
       <c r="E61" s="40" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
@@ -4120,7 +4108,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="31.5">
+    <row r="62" spans="1:12" ht="30">
       <c r="A62" s="34" t="s">
         <v>44</v>
       </c>
@@ -4132,7 +4120,7 @@
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="42" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
@@ -4146,7 +4134,7 @@
       <c r="K62" s="33"/>
       <c r="L62" s="33"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" ht="30">
       <c r="A63" s="34" t="s">
         <v>44</v>
       </c>
@@ -4158,7 +4146,7 @@
       </c>
       <c r="D63" s="32"/>
       <c r="E63" s="42" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F63" s="36"/>
       <c r="G63" s="36"/>
@@ -4203,7 +4191,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" ht="63">
+    <row r="67" spans="1:9" ht="60">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>85</v>
@@ -6072,7 +6060,7 @@
       <c r="H273" s="13"/>
       <c r="I273" s="13"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75" hidden="1">
+    <row r="274" spans="1:9" hidden="1">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
       <c r="E274" s="13"/>
@@ -6081,7 +6069,7 @@
       <c r="H274" s="13"/>
       <c r="I274" s="13"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75" hidden="1">
+    <row r="275" spans="1:9" hidden="1">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
       <c r="E275" s="13"/>
@@ -6090,7 +6078,7 @@
       <c r="H275" s="13"/>
       <c r="I275" s="13"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75" hidden="1">
+    <row r="276" spans="1:9" hidden="1">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
       <c r="E276" s="13"/>
@@ -6099,7 +6087,7 @@
       <c r="H276" s="13"/>
       <c r="I276" s="13"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75" hidden="1">
+    <row r="277" spans="1:9" hidden="1">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
       <c r="E277" s="13"/>
@@ -6108,7 +6096,7 @@
       <c r="H277" s="13"/>
       <c r="I277" s="13"/>
     </row>
-    <row r="278" spans="1:9" ht="15.75" hidden="1">
+    <row r="278" spans="1:9" hidden="1">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
       <c r="E278" s="13"/>
@@ -6117,7 +6105,7 @@
       <c r="H278" s="13"/>
       <c r="I278" s="13"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75" hidden="1">
+    <row r="279" spans="1:9" hidden="1">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
       <c r="E279" s="13"/>
@@ -6126,7 +6114,7 @@
       <c r="H279" s="13"/>
       <c r="I279" s="13"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75" hidden="1">
+    <row r="280" spans="1:9" hidden="1">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
       <c r="E280" s="13"/>
@@ -6135,7 +6123,7 @@
       <c r="H280" s="13"/>
       <c r="I280" s="13"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75" hidden="1">
+    <row r="281" spans="1:9" hidden="1">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
       <c r="E281" s="13"/>
@@ -6144,7 +6132,7 @@
       <c r="H281" s="13"/>
       <c r="I281" s="13"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75" hidden="1">
+    <row r="282" spans="1:9" hidden="1">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
       <c r="E282" s="13"/>
@@ -6153,7 +6141,7 @@
       <c r="H282" s="13"/>
       <c r="I282" s="13"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75" hidden="1">
+    <row r="283" spans="1:9" hidden="1">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
       <c r="E283" s="13"/>
@@ -6162,7 +6150,7 @@
       <c r="H283" s="13"/>
       <c r="I283" s="13"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75" hidden="1">
+    <row r="284" spans="1:9" hidden="1">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
       <c r="E284" s="13"/>
@@ -6171,7 +6159,7 @@
       <c r="H284" s="13"/>
       <c r="I284" s="13"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75" hidden="1">
+    <row r="285" spans="1:9" hidden="1">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
       <c r="E285" s="13"/>
@@ -6180,7 +6168,7 @@
       <c r="H285" s="13"/>
       <c r="I285" s="13"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75" hidden="1">
+    <row r="286" spans="1:9" hidden="1">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
       <c r="E286" s="13"/>
@@ -6189,7 +6177,7 @@
       <c r="H286" s="13"/>
       <c r="I286" s="13"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75" hidden="1">
+    <row r="287" spans="1:9" hidden="1">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
       <c r="E287" s="13"/>

--- a/shared/ojb-resources-common/src/main/resources/ssp/Booking_Reporting/artifacts/service_model/information_model/IEPD/documentation/BookingReportMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Booking_Reporting/artifacts/service_model/information_model/IEPD/documentation/BookingReportMapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9020" yWindow="3680" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="940" yWindow="1080" windowWidth="31400" windowHeight="17440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Booking Report" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="215">
   <si>
     <t>Race</t>
   </si>
@@ -616,13 +616,61 @@
   </si>
   <si>
     <t xml:space="preserve"> The agency for whom a subject is being held. (sending agency)</t>
+  </si>
+  <si>
+    <t>Eye Color</t>
+  </si>
+  <si>
+    <t>Hair Color</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Physical Feature Desc.</t>
+  </si>
+  <si>
+    <t>Scars, Marks, Tattoos</t>
+  </si>
+  <si>
+    <t>Allow Account Deposit Indicator</t>
+  </si>
+  <si>
+    <t>Supervision Conditions</t>
+  </si>
+  <si>
+    <t>Propbation/Parole Officer</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>Supervisor Category</t>
+  </si>
+  <si>
+    <t>Supervisor Status</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Phone Category Desc.</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Age</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -690,8 +738,29 @@
       <sz val="11"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,6 +781,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +815,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="762">
+  <cellStyleXfs count="766">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1503,8 +1578,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1540,9 +1619,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1585,8 +1661,35 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="762">
+  <cellStyles count="766">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1967,6 +2070,8 @@
     <cellStyle name="Followed Hyperlink" xfId="757" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="759" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="761" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="763" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="765" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2347,6 +2452,8 @@
     <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="760" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="762" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="764" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2682,17 +2789,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L387"/>
+  <dimension ref="A1:L402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD83"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" style="2" customWidth="1"/>
     <col min="3" max="4" width="28.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="92.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
@@ -2705,10 +2812,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="1"/>
@@ -2770,7 +2877,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:12" s="14" customFormat="1" ht="30">
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -2792,7 +2899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="14" customFormat="1">
+    <row r="5" spans="1:12" s="13" customFormat="1">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -2814,83 +2921,83 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="14" customFormat="1">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:12" s="13" customFormat="1">
+      <c r="A6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:12" s="14" customFormat="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="14" customFormat="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:12" s="13" customFormat="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="14" customFormat="1">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:12" s="13" customFormat="1">
+      <c r="A9" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" s="14" customFormat="1" ht="45">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" ht="45">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>131</v>
@@ -2904,24 +3011,24 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:12" s="14" customFormat="1">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:12" s="13" customFormat="1">
+      <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" s="12" customFormat="1" ht="45">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="s">
         <v>184</v>
       </c>
@@ -2938,186 +3045,115 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="14" customFormat="1" ht="45">
+    <row r="13" spans="1:12" s="30" customFormat="1">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:12" s="30" customFormat="1">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" s="30" customFormat="1">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:12" s="30" customFormat="1">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+    </row>
+    <row r="17" spans="1:12" s="30" customFormat="1">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" s="30" customFormat="1">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A19" s="6"/>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="20" t="s">
-        <v>143</v>
+      <c r="E19" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>21</v>
@@ -3128,1478 +3164,1616 @@
       <c r="H19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="14" customFormat="1" ht="45">
+      <c r="I19" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="E20" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="14" customFormat="1" ht="30">
+      <c r="I20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-    </row>
-    <row r="23" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-    </row>
-    <row r="24" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" s="14" customFormat="1" ht="45">
+      <c r="F27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A28" s="7"/>
       <c r="B28" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="20"/>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="12"/>
+      <c r="I28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="1:12" s="14" customFormat="1">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+    </row>
+    <row r="33" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" s="13" customFormat="1">
+      <c r="A35" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-    </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" ht="60">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+    </row>
+    <row r="36" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="23" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="14" customFormat="1" ht="60">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="23" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="14" t="s">
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="14" customFormat="1" ht="60">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+    <row r="38" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="23" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L32" s="14" t="s">
+      <c r="F38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="14" customFormat="1" ht="60">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+    <row r="39" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="23" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="14" t="s">
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="14" customFormat="1" ht="60">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+    <row r="40" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="23" t="s">
+      <c r="D40" s="6"/>
+      <c r="E40" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="14" customFormat="1">
-      <c r="A35" s="15" t="s">
+      <c r="F40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="13" customFormat="1">
+      <c r="A41" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A36" s="11"/>
-      <c r="B36" s="7" t="s">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+    </row>
+    <row r="42" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A42" s="11"/>
+      <c r="B42" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C42" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A37" s="11"/>
-      <c r="B37" s="7" t="s">
+      <c r="F42" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A43" s="11"/>
+      <c r="B43" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C43" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" s="14" customFormat="1" ht="75">
-      <c r="A38" s="22"/>
-      <c r="B38" s="12" t="s">
+      <c r="F43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="13" customFormat="1" ht="75">
+      <c r="A44" s="21"/>
+      <c r="B44" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="6" t="s">
+      <c r="D44" s="12"/>
+      <c r="E44" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12" t="s">
+      <c r="F44" s="12"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="14" customFormat="1">
-      <c r="A39" s="15" t="s">
+    <row r="45" spans="1:12" s="13" customFormat="1">
+      <c r="A45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" s="17" customFormat="1" ht="30">
-      <c r="B40" s="24" t="s">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+    </row>
+    <row r="46" spans="1:12" s="16" customFormat="1" ht="30">
+      <c r="B46" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="11" t="s">
+      <c r="D46" s="17"/>
+      <c r="E46" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F40" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="F46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="s">
+      <c r="F47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="J42" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" s="14" customFormat="1">
-      <c r="A43" s="15" t="s">
+      <c r="F48" s="6"/>
+      <c r="G48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="J48" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="13" customFormat="1">
+      <c r="A49" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-    </row>
-    <row r="44" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11" t="s">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+    </row>
+    <row r="50" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="6" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11" t="s">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="14" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A45" s="11"/>
-      <c r="B45" s="7" t="s">
+    <row r="51" spans="1:12" s="13" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E51" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="14" customFormat="1">
-      <c r="A46" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-    </row>
-    <row r="47" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A47" s="11"/>
-      <c r="B47" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A48" s="11"/>
-      <c r="B48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A49" s="11"/>
-      <c r="B49" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="14" customFormat="1" ht="165">
-      <c r="A50" s="22"/>
-      <c r="B50" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A51" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>165</v>
+      <c r="F51" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
-      <c r="I51" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" s="14" customFormat="1">
-      <c r="A52" s="15" t="s">
+      <c r="I51" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="13" customFormat="1">
+      <c r="A52" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+    </row>
+    <row r="53" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A53" s="11"/>
+      <c r="B53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A54" s="11"/>
+      <c r="B54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A55" s="11"/>
+      <c r="B55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="13" customFormat="1" ht="165">
+      <c r="A56" s="21"/>
+      <c r="B56" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A57" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="13" customFormat="1">
+      <c r="A58" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-    </row>
-    <row r="53" spans="1:12" s="14" customFormat="1" ht="60">
-      <c r="A53" s="22"/>
-      <c r="B53" s="26" t="s">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+    </row>
+    <row r="59" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="A59" s="21"/>
+      <c r="B59" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C59" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="7" t="s">
+      <c r="D59" s="12"/>
+      <c r="E59" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A54" s="22"/>
-      <c r="B54" s="26" t="s">
+      <c r="F59" s="12"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A60" s="21"/>
+      <c r="B60" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="7" t="s">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A55" s="22"/>
-      <c r="B55" s="26" t="s">
+      <c r="F60" s="12"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A61" s="21"/>
+      <c r="B61" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="7" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" s="14" customFormat="1" ht="60">
-      <c r="A56" s="22"/>
-      <c r="B56" s="12" t="s">
+      <c r="F61" s="12"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="A62" s="21"/>
+      <c r="B62" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C62" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="7" t="s">
+      <c r="D62" s="12"/>
+      <c r="E62" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F56" s="7"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" s="14" customFormat="1">
-      <c r="A57" s="15" t="s">
+      <c r="F62" s="7"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" s="13" customFormat="1">
+      <c r="A63" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-    </row>
-    <row r="58" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A58" s="11"/>
-      <c r="B58" s="7" t="s">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+    </row>
+    <row r="64" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A64" s="11"/>
+      <c r="B64" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C64" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E64" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A59" s="11"/>
-      <c r="B59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J59" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="L59" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A60" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A61" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="B62" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A63" s="11"/>
-      <c r="B63" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="14" customFormat="1" ht="45">
-      <c r="A64" s="11"/>
-      <c r="B64" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="14" customFormat="1" ht="45">
+      <c r="H64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A65" s="11"/>
-      <c r="B65" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>70</v>
+      <c r="B65" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="11" t="s">
         <v>21</v>
       </c>
       <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="14" customFormat="1" ht="30">
+      <c r="I65" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="13" customFormat="1" ht="45">
       <c r="A66" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E66" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="F66" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="14" customFormat="1" ht="30">
+      <c r="I66" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="13" customFormat="1" ht="45">
       <c r="A67" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F67" s="11"/>
+        <v>44</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J67" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A68" s="22"/>
-      <c r="B68" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="12"/>
-      <c r="L68" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A69" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-    </row>
-    <row r="70" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A70" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-    </row>
-    <row r="71" spans="1:12" s="14" customFormat="1">
-      <c r="A71" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-    </row>
-    <row r="72" spans="1:12" s="14" customFormat="1">
-      <c r="A72" s="11"/>
+      <c r="J67" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="B68" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A69" s="11"/>
+      <c r="B69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A70" s="11"/>
+      <c r="B70" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="13" customFormat="1" ht="45">
+      <c r="A71" s="11"/>
+      <c r="B71" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A72" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="B72" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="6" t="s">
-        <v>190</v>
+        <v>71</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-    </row>
-    <row r="73" spans="1:12" s="14" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A73" s="11"/>
-      <c r="B73" s="7" t="s">
+      <c r="J72" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="32" customFormat="1" ht="30">
+      <c r="A73" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="30" customFormat="1">
+      <c r="A74" s="34"/>
+      <c r="B74" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" s="35"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+    </row>
+    <row r="75" spans="1:12" s="30" customFormat="1">
+      <c r="A75" s="34"/>
+      <c r="B75" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="35"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+    </row>
+    <row r="76" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A76" s="21"/>
+      <c r="B76" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" s="12"/>
+      <c r="L76" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="13" customFormat="1">
+      <c r="A77" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+    </row>
+    <row r="78" spans="1:12" s="13" customFormat="1">
+      <c r="A78" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+    </row>
+    <row r="79" spans="1:12" s="13" customFormat="1" ht="30">
+      <c r="A79" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+    </row>
+    <row r="80" spans="1:12" s="30" customFormat="1">
+      <c r="A80" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" s="29"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="L80" s="35"/>
+    </row>
+    <row r="81" spans="1:12" s="30" customFormat="1">
+      <c r="A81" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" s="29"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="L81" s="35"/>
+    </row>
+    <row r="82" spans="1:12" s="30" customFormat="1">
+      <c r="A82" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" s="29"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="L82" s="35"/>
+    </row>
+    <row r="83" spans="1:12" s="30" customFormat="1">
+      <c r="A83" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" s="29"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="L83" s="35"/>
+    </row>
+    <row r="84" spans="1:12" s="30" customFormat="1">
+      <c r="A84" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" s="29"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="L84" s="35"/>
+    </row>
+    <row r="85" spans="1:12" s="30" customFormat="1">
+      <c r="A85" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="L85" s="35"/>
+    </row>
+    <row r="86" spans="1:12" s="13" customFormat="1">
+      <c r="A86" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+    </row>
+    <row r="87" spans="1:12" s="13" customFormat="1">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+    </row>
+    <row r="88" spans="1:12" s="13" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A88" s="11"/>
+      <c r="B88" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E88" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="1:12" s="14" customFormat="1">
-      <c r="A74" s="11"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-    </row>
-    <row r="75" spans="1:12" s="14" customFormat="1">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="1:12" s="14" customFormat="1">
-      <c r="A76" s="11" t="s">
+      <c r="F88" s="7"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:12" s="13" customFormat="1">
+      <c r="A89" s="11"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" spans="1:12" s="13" customFormat="1">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" spans="1:12" s="13" customFormat="1">
+      <c r="A91" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-    </row>
-    <row r="77" spans="1:12" s="14" customFormat="1" ht="60">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11" t="s">
+      <c r="B91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+    </row>
+    <row r="92" spans="1:12" s="13" customFormat="1" ht="60">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C92" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="1:12" s="14" customFormat="1">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="1:12" s="14" customFormat="1">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:12" s="14" customFormat="1">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:9" s="14" customFormat="1">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="1:9" s="14" customFormat="1">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
-    </row>
-    <row r="83" spans="1:9" s="14" customFormat="1">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+    </row>
+    <row r="93" spans="1:12" s="13" customFormat="1">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="1:12" s="13" customFormat="1">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+    </row>
+    <row r="95" spans="1:12" s="13" customFormat="1">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+    </row>
+    <row r="96" spans="1:12" s="13" customFormat="1">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+    </row>
+    <row r="97" spans="1:9" s="13" customFormat="1">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" s="13" customFormat="1">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="8"/>
@@ -6194,7 +6368,7 @@
       <c r="H275" s="8"/>
       <c r="I275" s="8"/>
     </row>
-    <row r="276" spans="1:9" hidden="1">
+    <row r="276" spans="1:9">
       <c r="A276" s="8"/>
       <c r="B276" s="8"/>
       <c r="E276" s="8"/>
@@ -6203,7 +6377,7 @@
       <c r="H276" s="8"/>
       <c r="I276" s="8"/>
     </row>
-    <row r="277" spans="1:9" hidden="1">
+    <row r="277" spans="1:9">
       <c r="A277" s="8"/>
       <c r="B277" s="8"/>
       <c r="E277" s="8"/>
@@ -6212,7 +6386,7 @@
       <c r="H277" s="8"/>
       <c r="I277" s="8"/>
     </row>
-    <row r="278" spans="1:9" hidden="1">
+    <row r="278" spans="1:9">
       <c r="A278" s="8"/>
       <c r="B278" s="8"/>
       <c r="E278" s="8"/>
@@ -6221,7 +6395,7 @@
       <c r="H278" s="8"/>
       <c r="I278" s="8"/>
     </row>
-    <row r="279" spans="1:9" hidden="1">
+    <row r="279" spans="1:9">
       <c r="A279" s="8"/>
       <c r="B279" s="8"/>
       <c r="E279" s="8"/>
@@ -6230,7 +6404,7 @@
       <c r="H279" s="8"/>
       <c r="I279" s="8"/>
     </row>
-    <row r="280" spans="1:9" hidden="1">
+    <row r="280" spans="1:9">
       <c r="A280" s="8"/>
       <c r="B280" s="8"/>
       <c r="E280" s="8"/>
@@ -6239,7 +6413,7 @@
       <c r="H280" s="8"/>
       <c r="I280" s="8"/>
     </row>
-    <row r="281" spans="1:9" hidden="1">
+    <row r="281" spans="1:9">
       <c r="A281" s="8"/>
       <c r="B281" s="8"/>
       <c r="E281" s="8"/>
@@ -6248,7 +6422,7 @@
       <c r="H281" s="8"/>
       <c r="I281" s="8"/>
     </row>
-    <row r="282" spans="1:9" hidden="1">
+    <row r="282" spans="1:9">
       <c r="A282" s="8"/>
       <c r="B282" s="8"/>
       <c r="E282" s="8"/>
@@ -6257,7 +6431,7 @@
       <c r="H282" s="8"/>
       <c r="I282" s="8"/>
     </row>
-    <row r="283" spans="1:9" hidden="1">
+    <row r="283" spans="1:9">
       <c r="A283" s="8"/>
       <c r="B283" s="8"/>
       <c r="E283" s="8"/>
@@ -6266,7 +6440,7 @@
       <c r="H283" s="8"/>
       <c r="I283" s="8"/>
     </row>
-    <row r="284" spans="1:9" hidden="1">
+    <row r="284" spans="1:9">
       <c r="A284" s="8"/>
       <c r="B284" s="8"/>
       <c r="E284" s="8"/>
@@ -6275,7 +6449,7 @@
       <c r="H284" s="8"/>
       <c r="I284" s="8"/>
     </row>
-    <row r="285" spans="1:9" hidden="1">
+    <row r="285" spans="1:9">
       <c r="A285" s="8"/>
       <c r="B285" s="8"/>
       <c r="E285" s="8"/>
@@ -6284,7 +6458,7 @@
       <c r="H285" s="8"/>
       <c r="I285" s="8"/>
     </row>
-    <row r="286" spans="1:9" hidden="1">
+    <row r="286" spans="1:9">
       <c r="A286" s="8"/>
       <c r="B286" s="8"/>
       <c r="E286" s="8"/>
@@ -6293,7 +6467,7 @@
       <c r="H286" s="8"/>
       <c r="I286" s="8"/>
     </row>
-    <row r="287" spans="1:9" hidden="1">
+    <row r="287" spans="1:9">
       <c r="A287" s="8"/>
       <c r="B287" s="8"/>
       <c r="E287" s="8"/>
@@ -6302,7 +6476,7 @@
       <c r="H287" s="8"/>
       <c r="I287" s="8"/>
     </row>
-    <row r="288" spans="1:9" hidden="1">
+    <row r="288" spans="1:9">
       <c r="A288" s="8"/>
       <c r="B288" s="8"/>
       <c r="E288" s="8"/>
@@ -6311,7 +6485,7 @@
       <c r="H288" s="8"/>
       <c r="I288" s="8"/>
     </row>
-    <row r="289" spans="1:9" hidden="1">
+    <row r="289" spans="1:9">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="E289" s="8"/>
@@ -6329,7 +6503,7 @@
       <c r="H290" s="8"/>
       <c r="I290" s="8"/>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" hidden="1">
       <c r="A291" s="8"/>
       <c r="B291" s="8"/>
       <c r="E291" s="8"/>
@@ -6338,7 +6512,7 @@
       <c r="H291" s="8"/>
       <c r="I291" s="8"/>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" hidden="1">
       <c r="A292" s="8"/>
       <c r="B292" s="8"/>
       <c r="E292" s="8"/>
@@ -6347,7 +6521,7 @@
       <c r="H292" s="8"/>
       <c r="I292" s="8"/>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" hidden="1">
       <c r="A293" s="8"/>
       <c r="B293" s="8"/>
       <c r="E293" s="8"/>
@@ -6356,7 +6530,7 @@
       <c r="H293" s="8"/>
       <c r="I293" s="8"/>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" hidden="1">
       <c r="A294" s="8"/>
       <c r="B294" s="8"/>
       <c r="E294" s="8"/>
@@ -6365,7 +6539,7 @@
       <c r="H294" s="8"/>
       <c r="I294" s="8"/>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" hidden="1">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
       <c r="E295" s="8"/>
@@ -6374,7 +6548,7 @@
       <c r="H295" s="8"/>
       <c r="I295" s="8"/>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" hidden="1">
       <c r="A296" s="8"/>
       <c r="B296" s="8"/>
       <c r="E296" s="8"/>
@@ -6383,7 +6557,7 @@
       <c r="H296" s="8"/>
       <c r="I296" s="8"/>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" hidden="1">
       <c r="A297" s="8"/>
       <c r="B297" s="8"/>
       <c r="E297" s="8"/>
@@ -6392,7 +6566,7 @@
       <c r="H297" s="8"/>
       <c r="I297" s="8"/>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" hidden="1">
       <c r="A298" s="8"/>
       <c r="B298" s="8"/>
       <c r="E298" s="8"/>
@@ -6401,7 +6575,7 @@
       <c r="H298" s="8"/>
       <c r="I298" s="8"/>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" hidden="1">
       <c r="A299" s="8"/>
       <c r="B299" s="8"/>
       <c r="E299" s="8"/>
@@ -6410,7 +6584,7 @@
       <c r="H299" s="8"/>
       <c r="I299" s="8"/>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" hidden="1">
       <c r="A300" s="8"/>
       <c r="B300" s="8"/>
       <c r="E300" s="8"/>
@@ -6419,7 +6593,7 @@
       <c r="H300" s="8"/>
       <c r="I300" s="8"/>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" hidden="1">
       <c r="A301" s="8"/>
       <c r="B301" s="8"/>
       <c r="E301" s="8"/>
@@ -6428,7 +6602,7 @@
       <c r="H301" s="8"/>
       <c r="I301" s="8"/>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" hidden="1">
       <c r="A302" s="8"/>
       <c r="B302" s="8"/>
       <c r="E302" s="8"/>
@@ -6437,7 +6611,7 @@
       <c r="H302" s="8"/>
       <c r="I302" s="8"/>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" hidden="1">
       <c r="A303" s="8"/>
       <c r="B303" s="8"/>
       <c r="E303" s="8"/>
@@ -6446,7 +6620,7 @@
       <c r="H303" s="8"/>
       <c r="I303" s="8"/>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" hidden="1">
       <c r="A304" s="8"/>
       <c r="B304" s="8"/>
       <c r="E304" s="8"/>
@@ -7201,6 +7375,141 @@
       <c r="G387" s="8"/>
       <c r="H387" s="8"/>
       <c r="I387" s="8"/>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" s="8"/>
+      <c r="B388" s="8"/>
+      <c r="E388" s="8"/>
+      <c r="F388" s="8"/>
+      <c r="G388" s="8"/>
+      <c r="H388" s="8"/>
+      <c r="I388" s="8"/>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" s="8"/>
+      <c r="B389" s="8"/>
+      <c r="E389" s="8"/>
+      <c r="F389" s="8"/>
+      <c r="G389" s="8"/>
+      <c r="H389" s="8"/>
+      <c r="I389" s="8"/>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" s="8"/>
+      <c r="B390" s="8"/>
+      <c r="E390" s="8"/>
+      <c r="F390" s="8"/>
+      <c r="G390" s="8"/>
+      <c r="H390" s="8"/>
+      <c r="I390" s="8"/>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" s="8"/>
+      <c r="B391" s="8"/>
+      <c r="E391" s="8"/>
+      <c r="F391" s="8"/>
+      <c r="G391" s="8"/>
+      <c r="H391" s="8"/>
+      <c r="I391" s="8"/>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" s="8"/>
+      <c r="B392" s="8"/>
+      <c r="E392" s="8"/>
+      <c r="F392" s="8"/>
+      <c r="G392" s="8"/>
+      <c r="H392" s="8"/>
+      <c r="I392" s="8"/>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" s="8"/>
+      <c r="B393" s="8"/>
+      <c r="E393" s="8"/>
+      <c r="F393" s="8"/>
+      <c r="G393" s="8"/>
+      <c r="H393" s="8"/>
+      <c r="I393" s="8"/>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" s="8"/>
+      <c r="B394" s="8"/>
+      <c r="E394" s="8"/>
+      <c r="F394" s="8"/>
+      <c r="G394" s="8"/>
+      <c r="H394" s="8"/>
+      <c r="I394" s="8"/>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" s="8"/>
+      <c r="B395" s="8"/>
+      <c r="E395" s="8"/>
+      <c r="F395" s="8"/>
+      <c r="G395" s="8"/>
+      <c r="H395" s="8"/>
+      <c r="I395" s="8"/>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" s="8"/>
+      <c r="B396" s="8"/>
+      <c r="E396" s="8"/>
+      <c r="F396" s="8"/>
+      <c r="G396" s="8"/>
+      <c r="H396" s="8"/>
+      <c r="I396" s="8"/>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" s="8"/>
+      <c r="B397" s="8"/>
+      <c r="E397" s="8"/>
+      <c r="F397" s="8"/>
+      <c r="G397" s="8"/>
+      <c r="H397" s="8"/>
+      <c r="I397" s="8"/>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" s="8"/>
+      <c r="B398" s="8"/>
+      <c r="E398" s="8"/>
+      <c r="F398" s="8"/>
+      <c r="G398" s="8"/>
+      <c r="H398" s="8"/>
+      <c r="I398" s="8"/>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" s="8"/>
+      <c r="B399" s="8"/>
+      <c r="E399" s="8"/>
+      <c r="F399" s="8"/>
+      <c r="G399" s="8"/>
+      <c r="H399" s="8"/>
+      <c r="I399" s="8"/>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" s="8"/>
+      <c r="B400" s="8"/>
+      <c r="E400" s="8"/>
+      <c r="F400" s="8"/>
+      <c r="G400" s="8"/>
+      <c r="H400" s="8"/>
+      <c r="I400" s="8"/>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" s="8"/>
+      <c r="B401" s="8"/>
+      <c r="E401" s="8"/>
+      <c r="F401" s="8"/>
+      <c r="G401" s="8"/>
+      <c r="H401" s="8"/>
+      <c r="I401" s="8"/>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" s="8"/>
+      <c r="B402" s="8"/>
+      <c r="E402" s="8"/>
+      <c r="F402" s="8"/>
+      <c r="G402" s="8"/>
+      <c r="H402" s="8"/>
+      <c r="I402" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/shared/ojb-resources-common/src/main/resources/ssp/Booking_Reporting/artifacts/service_model/information_model/IEPD/documentation/BookingReportMapping.xlsx
+++ b/shared/ojb-resources-common/src/main/resources/ssp/Booking_Reporting/artifacts/service_model/information_model/IEPD/documentation/BookingReportMapping.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="216">
   <si>
     <t>Race</t>
   </si>
@@ -664,13 +664,16 @@
   </si>
   <si>
     <t>Age</t>
+  </si>
+  <si>
+    <t>ADD LOCATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -759,6 +762,11 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1583,7 +1591,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1661,9 +1669,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1687,6 +1692,24 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="766">
@@ -2792,8 +2815,8 @@
   <dimension ref="A1:L402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83:XFD85"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2812,10 +2835,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="9"/>
       <c r="D1" s="10"/>
       <c r="E1" s="1"/>
@@ -3045,103 +3068,103 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="30" customFormat="1">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29" t="s">
+    <row r="13" spans="1:12" s="29" customFormat="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="14" spans="1:12" s="30" customFormat="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" s="29" customFormat="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-    </row>
-    <row r="15" spans="1:12" s="30" customFormat="1">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+    </row>
+    <row r="15" spans="1:12" s="29" customFormat="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-    </row>
-    <row r="16" spans="1:12" s="30" customFormat="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" spans="1:12" s="29" customFormat="1">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-    </row>
-    <row r="17" spans="1:12" s="30" customFormat="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" s="29" customFormat="1">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-    </row>
-    <row r="18" spans="1:12" s="30" customFormat="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29" t="s">
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" s="29" customFormat="1">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28" t="s">
         <v>203</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
     </row>
     <row r="19" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A19" s="6"/>
@@ -4117,29 +4140,31 @@
       <c r="K58" s="15"/>
       <c r="L58" s="15"/>
     </row>
-    <row r="59" spans="1:12" s="13" customFormat="1" ht="60">
-      <c r="A59" s="21"/>
-      <c r="B59" s="25" t="s">
+    <row r="59" spans="1:12" s="40" customFormat="1" ht="60">
+      <c r="A59" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="7" t="s">
+      <c r="D59" s="38"/>
+      <c r="E59" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
     </row>
     <row r="60" spans="1:12" s="13" customFormat="1" ht="45">
       <c r="A60" s="21"/>
@@ -4428,50 +4453,50 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="32" customFormat="1" ht="30">
-      <c r="A73" s="31" t="s">
+    <row r="73" spans="1:12" s="31" customFormat="1" ht="30">
+      <c r="A73" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" s="32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" s="30" customFormat="1">
-      <c r="A74" s="34"/>
-      <c r="B74" s="30" t="s">
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="29" customFormat="1">
+      <c r="A74" s="33"/>
+      <c r="B74" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-    </row>
-    <row r="75" spans="1:12" s="30" customFormat="1">
-      <c r="A75" s="34"/>
-      <c r="B75" s="30" t="s">
+      <c r="E74" s="34"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+    </row>
+    <row r="75" spans="1:12" s="29" customFormat="1">
+      <c r="A75" s="33"/>
+      <c r="B75" s="29" t="s">
         <v>206</v>
       </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
     </row>
     <row r="76" spans="1:12" s="13" customFormat="1" ht="30">
       <c r="A76" s="21"/>
@@ -4567,71 +4592,71 @@
       <c r="K79" s="15"/>
       <c r="L79" s="15"/>
     </row>
-    <row r="80" spans="1:12" s="30" customFormat="1">
-      <c r="A80" s="34" t="s">
+    <row r="80" spans="1:12" s="29" customFormat="1">
+      <c r="A80" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="E80" s="29"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="L80" s="35"/>
-    </row>
-    <row r="81" spans="1:12" s="30" customFormat="1">
-      <c r="A81" s="34" t="s">
+      <c r="E80" s="28"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="33"/>
+      <c r="L80" s="34"/>
+    </row>
+    <row r="81" spans="1:12" s="29" customFormat="1">
+      <c r="A81" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="L81" s="35"/>
-    </row>
-    <row r="82" spans="1:12" s="30" customFormat="1">
-      <c r="A82" s="34" t="s">
+      <c r="E81" s="28"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="33"/>
+      <c r="L81" s="34"/>
+    </row>
+    <row r="82" spans="1:12" s="29" customFormat="1">
+      <c r="A82" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="E82" s="29"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="L82" s="35"/>
-    </row>
-    <row r="83" spans="1:12" s="30" customFormat="1">
-      <c r="A83" s="34" t="s">
+      <c r="E82" s="28"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="33"/>
+      <c r="L82" s="34"/>
+    </row>
+    <row r="83" spans="1:12" s="29" customFormat="1">
+      <c r="A83" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="E83" s="29"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="L83" s="35"/>
-    </row>
-    <row r="84" spans="1:12" s="30" customFormat="1">
-      <c r="A84" s="34" t="s">
+      <c r="E83" s="28"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="L83" s="34"/>
+    </row>
+    <row r="84" spans="1:12" s="29" customFormat="1">
+      <c r="A84" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="E84" s="29"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="L84" s="35"/>
-    </row>
-    <row r="85" spans="1:12" s="30" customFormat="1">
-      <c r="A85" s="34" t="s">
+      <c r="E84" s="28"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="L84" s="34"/>
+    </row>
+    <row r="85" spans="1:12" s="29" customFormat="1">
+      <c r="A85" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="E85" s="29"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="L85" s="35"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="33"/>
+      <c r="L85" s="34"/>
     </row>
     <row r="86" spans="1:12" s="13" customFormat="1">
       <c r="A86" s="14" t="s">
